--- a/Data_frame/balancos_definitivos/BRGE7.xlsx
+++ b/Data_frame/balancos_definitivos/BRGE7.xlsx
@@ -911,7 +911,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ativo Total</t>
+        </is>
+      </c>
       <c r="B2" t="n">
         <v>293932.992</v>
       </c>
@@ -1196,7 +1200,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ativo Circulante</t>
+        </is>
+      </c>
       <c r="B3" t="n">
         <v>7364</v>
       </c>
@@ -1481,7 +1489,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Caixa e Equivalentes de Caixa</t>
+        </is>
+      </c>
       <c r="B4" t="n">
         <v>5669</v>
       </c>
@@ -1766,7 +1778,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aplicações Financeiras</t>
+        </is>
+      </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
@@ -2051,7 +2067,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Contas a Receber</t>
+        </is>
+      </c>
       <c r="B6" t="n">
         <v>27</v>
       </c>
@@ -2336,7 +2356,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Estoques</t>
+        </is>
+      </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
@@ -2621,7 +2645,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ativos Biológicos</t>
+        </is>
+      </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
@@ -2906,7 +2934,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tributos a Recuperar</t>
+        </is>
+      </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
@@ -3191,7 +3223,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Despesas Antecipadas</t>
+        </is>
+      </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
@@ -3476,7 +3512,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Outros Ativos Circulantes</t>
+        </is>
+      </c>
       <c r="B11" t="n">
         <v>1668</v>
       </c>
@@ -3761,7 +3801,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ativo Realizável a Longo Prazo</t>
+        </is>
+      </c>
       <c r="B12" t="n">
         <v>602</v>
       </c>
@@ -4046,7 +4090,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Aplicações Financeiras Avaliadas a Valor Justo</t>
+        </is>
+      </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
@@ -4331,7 +4379,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Aplicações Financeiras Avaliadas ao Custo Amortizado</t>
+        </is>
+      </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
@@ -4616,7 +4668,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Contas a Receber</t>
+        </is>
+      </c>
       <c r="B15" t="n">
         <v>602</v>
       </c>
@@ -4901,7 +4957,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Estoques</t>
+        </is>
+      </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
@@ -5186,7 +5246,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ativos Biológicos</t>
+        </is>
+      </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
@@ -5471,7 +5535,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Tributos Diferidos</t>
+        </is>
+      </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
@@ -5756,7 +5824,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Despesas Antecipadas</t>
+        </is>
+      </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
@@ -6041,7 +6113,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Créditos com Partes Relacionadas</t>
+        </is>
+      </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
@@ -6326,7 +6402,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Outros Ativos Não Circulantes</t>
+        </is>
+      </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
@@ -6611,7 +6691,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Investimentos</t>
+        </is>
+      </c>
       <c r="B22" t="n">
         <v>285888.992</v>
       </c>
@@ -6896,7 +6980,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Imobilizado</t>
+        </is>
+      </c>
       <c r="B23" t="n">
         <v>78</v>
       </c>
@@ -7181,7 +7269,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Intangível</t>
+        </is>
+      </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
@@ -7466,7 +7558,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Diferido</t>
+        </is>
+      </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
@@ -7751,7 +7847,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Passivo Total</t>
+        </is>
+      </c>
       <c r="B26" t="n">
         <v>293932.992</v>
       </c>
@@ -8036,7 +8136,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Passivo Circulante</t>
+        </is>
+      </c>
       <c r="B27" t="n">
         <v>4107</v>
       </c>
@@ -8321,7 +8425,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Obrigações Sociais e Trabalhistas</t>
+        </is>
+      </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
@@ -8606,7 +8714,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Fornecedores</t>
+        </is>
+      </c>
       <c r="B29" t="n">
         <v>25</v>
       </c>
@@ -8891,7 +9003,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Obrigações Fiscais</t>
+        </is>
+      </c>
       <c r="B30" t="n">
         <v>159</v>
       </c>
@@ -9176,7 +9292,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Empréstimos e Financiamentos</t>
+        </is>
+      </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
@@ -9461,7 +9581,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Passivos com Partes Relacionadas</t>
+        </is>
+      </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
@@ -9746,7 +9870,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Dividendos e JCP a Pagar</t>
+        </is>
+      </c>
       <c r="B33" t="n">
         <v>2731</v>
       </c>
@@ -10031,7 +10159,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
       <c r="B34" t="n">
         <v>1045</v>
       </c>
@@ -10316,7 +10448,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Provisões</t>
+        </is>
+      </c>
       <c r="B35" t="n">
         <v>147</v>
       </c>
@@ -10601,7 +10737,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Passivos sobre Ativos Não-Correntes a Venda e Descontinuados</t>
+        </is>
+      </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
@@ -10886,7 +11026,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Passivo Não Circulante</t>
+        </is>
+      </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
@@ -11171,7 +11315,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Empréstimos e Financiamentos</t>
+        </is>
+      </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
@@ -11456,7 +11604,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Passivos com Partes Relacionadas</t>
+        </is>
+      </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
@@ -11741,7 +11893,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
@@ -12026,7 +12182,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Tributos Diferidos</t>
+        </is>
+      </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
@@ -12311,7 +12471,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Adiantamento para Futuro Aumento Capital</t>
+        </is>
+      </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
@@ -12596,7 +12760,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Provisões</t>
+        </is>
+      </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
@@ -12881,7 +13049,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Passivos sobre Ativos Não-Correntes a Venda e Descontinuados</t>
+        </is>
+      </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
@@ -13166,7 +13338,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Lucros e Receitas a Apropriar</t>
+        </is>
+      </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
@@ -13451,7 +13627,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Participação dos Acionistas Não Controladores</t>
+        </is>
+      </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
@@ -13736,7 +13916,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Patrimônio Líquido</t>
+        </is>
+      </c>
       <c r="B47" t="n">
         <v>289825.984</v>
       </c>
@@ -14021,7 +14205,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Capital Social Realizado</t>
+        </is>
+      </c>
       <c r="B48" t="n">
         <v>87410</v>
       </c>
@@ -14306,7 +14494,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Reservas de Capital</t>
+        </is>
+      </c>
       <c r="B49" t="n">
         <v>2693</v>
       </c>
@@ -14591,7 +14783,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Reservas de Reavaliação</t>
+        </is>
+      </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
@@ -14876,7 +15072,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Reservas de Lucros</t>
+        </is>
+      </c>
       <c r="B51" t="n">
         <v>184248.992</v>
       </c>
@@ -15161,7 +15361,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Lucros/Prejuízos Acumulados</t>
+        </is>
+      </c>
       <c r="B52" t="n">
         <v>15474</v>
       </c>
@@ -15446,7 +15650,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ajustes de Avaliação Patrimonial</t>
+        </is>
+      </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
@@ -15731,7 +15939,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ajustes Acumulados de Conversão</t>
+        </is>
+      </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
@@ -16016,7 +16228,11 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Outros Resultados Abrangentes</t>
+        </is>
+      </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
@@ -16301,7 +16517,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Adiantamento para Futuro Aumento Capital</t>
+        </is>
+      </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
@@ -16691,27 +16911,29 @@
         <v>136</v>
       </c>
       <c r="AI57" t="n">
+        <v>22882</v>
+      </c>
+      <c r="AJ57" t="n">
         <v>134</v>
       </c>
-      <c r="AJ57" t="n">
+      <c r="AK57" t="n">
         <v>136</v>
       </c>
-      <c r="AK57" t="n">
+      <c r="AL57" t="n">
         <v>145</v>
       </c>
-      <c r="AL57" t="n">
+      <c r="AM57" t="n">
         <v>14923</v>
       </c>
-      <c r="AM57" t="n">
+      <c r="AN57" t="n">
         <v>4862</v>
       </c>
-      <c r="AN57" t="n">
+      <c r="AO57" t="n">
         <v>3726</v>
       </c>
-      <c r="AO57" t="n">
+      <c r="AP57" t="n">
         <v>4227</v>
       </c>
-      <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
       <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="inlineStr"/>
@@ -16872,27 +17094,29 @@
         <v>-19</v>
       </c>
       <c r="AI58" t="n">
-        <v>-19</v>
+        <v>60</v>
       </c>
       <c r="AJ58" t="n">
         <v>-19</v>
       </c>
       <c r="AK58" t="n">
+        <v>-19</v>
+      </c>
+      <c r="AL58" t="n">
         <v>-21</v>
       </c>
-      <c r="AL58" t="n">
+      <c r="AM58" t="n">
         <v>59</v>
       </c>
-      <c r="AM58" t="n">
+      <c r="AN58" t="n">
         <v>-692</v>
       </c>
-      <c r="AN58" t="n">
+      <c r="AO58" t="n">
         <v>-531</v>
       </c>
-      <c r="AO58" t="n">
+      <c r="AP58" t="n">
         <v>-602</v>
       </c>
-      <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
       <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr"/>
@@ -17053,184 +17277,184 @@
         <v>117</v>
       </c>
       <c r="AI59" t="n">
+        <v>22942</v>
+      </c>
+      <c r="AJ59" t="n">
         <v>115</v>
       </c>
-      <c r="AJ59" t="n">
+      <c r="AK59" t="n">
         <v>117</v>
       </c>
-      <c r="AK59" t="n">
+      <c r="AL59" t="n">
         <v>124</v>
       </c>
-      <c r="AL59" t="n">
+      <c r="AM59" t="n">
         <v>14982</v>
       </c>
-      <c r="AM59" t="n">
+      <c r="AN59" t="n">
         <v>4170</v>
       </c>
-      <c r="AN59" t="n">
+      <c r="AO59" t="n">
         <v>3195</v>
       </c>
-      <c r="AO59" t="n">
+      <c r="AP59" t="n">
         <v>3625</v>
       </c>
-      <c r="AP59" t="n">
+      <c r="AQ59" t="n">
         <v>247</v>
       </c>
-      <c r="AQ59" t="n">
+      <c r="AR59" t="n">
         <v>3227</v>
       </c>
-      <c r="AR59" t="n">
+      <c r="AS59" t="n">
         <v>4730</v>
       </c>
-      <c r="AS59" t="n">
+      <c r="AT59" t="n">
         <v>3516</v>
       </c>
-      <c r="AT59" t="n">
+      <c r="AU59" t="n">
         <v>3956</v>
       </c>
-      <c r="AU59" t="n">
+      <c r="AV59" t="n">
         <v>5202</v>
       </c>
-      <c r="AV59" t="n">
+      <c r="AW59" t="n">
         <v>5688</v>
       </c>
-      <c r="AW59" t="n">
+      <c r="AX59" t="n">
         <v>8880</v>
       </c>
-      <c r="AX59" t="n">
+      <c r="AY59" t="n">
         <v>7846</v>
       </c>
-      <c r="AY59" t="n">
+      <c r="AZ59" t="n">
         <v>7274</v>
       </c>
-      <c r="AZ59" t="n">
+      <c r="BA59" t="n">
         <v>6967</v>
       </c>
-      <c r="BA59" t="n">
+      <c r="BB59" t="n">
         <v>6865</v>
       </c>
-      <c r="BB59" t="n">
+      <c r="BC59" t="n">
         <v>6677</v>
       </c>
-      <c r="BC59" t="n">
+      <c r="BD59" t="n">
         <v>5810</v>
       </c>
-      <c r="BD59" t="n">
+      <c r="BE59" t="n">
         <v>5728</v>
       </c>
-      <c r="BE59" t="n">
+      <c r="BF59" t="n">
         <v>6086</v>
       </c>
-      <c r="BF59" t="n">
+      <c r="BG59" t="n">
         <v>7052</v>
       </c>
-      <c r="BG59" t="n">
+      <c r="BH59" t="n">
         <v>6645</v>
       </c>
-      <c r="BH59" t="n">
+      <c r="BI59" t="n">
         <v>6798</v>
       </c>
-      <c r="BI59" t="n">
+      <c r="BJ59" t="n">
         <v>6946</v>
       </c>
-      <c r="BJ59" t="n">
+      <c r="BK59" t="n">
         <v>7312</v>
       </c>
-      <c r="BK59" t="n">
+      <c r="BL59" t="n">
         <v>7670</v>
       </c>
-      <c r="BL59" t="n">
+      <c r="BM59" t="n">
         <v>8222</v>
       </c>
-      <c r="BM59" t="n">
+      <c r="BN59" t="n">
         <v>8061</v>
       </c>
-      <c r="BN59" t="n">
+      <c r="BO59" t="n">
         <v>6603</v>
       </c>
-      <c r="BO59" t="n">
+      <c r="BP59" t="n">
         <v>5314</v>
       </c>
-      <c r="BP59" t="n">
+      <c r="BQ59" t="n">
         <v>6582</v>
       </c>
-      <c r="BQ59" t="n">
+      <c r="BR59" t="n">
         <v>6539</v>
       </c>
-      <c r="BR59" t="n">
+      <c r="BS59" t="n">
         <v>6859</v>
       </c>
-      <c r="BS59" t="n">
+      <c r="BT59" t="n">
         <v>6946</v>
       </c>
-      <c r="BT59" t="n">
+      <c r="BU59" t="n">
         <v>5707</v>
       </c>
-      <c r="BU59" t="n">
+      <c r="BV59" t="n">
         <v>6582</v>
       </c>
-      <c r="BV59" t="n">
+      <c r="BW59" t="n">
         <v>6765</v>
       </c>
-      <c r="BW59" t="n">
+      <c r="BX59" t="n">
         <v>6561</v>
       </c>
-      <c r="BX59" t="n">
+      <c r="BY59" t="n">
         <v>7319</v>
       </c>
-      <c r="BY59" t="n">
+      <c r="BZ59" t="n">
         <v>7145</v>
       </c>
-      <c r="BZ59" t="n">
+      <c r="CA59" t="n">
         <v>7737</v>
       </c>
-      <c r="CA59" t="n">
+      <c r="CB59" t="n">
         <v>7068</v>
       </c>
-      <c r="CB59" t="n">
+      <c r="CC59" t="n">
         <v>15189</v>
       </c>
-      <c r="CC59" t="n">
+      <c r="CD59" t="n">
         <v>-207</v>
       </c>
-      <c r="CD59" t="n">
+      <c r="CE59" t="n">
         <v>3594</v>
       </c>
-      <c r="CE59" t="n">
+      <c r="CF59" t="n">
         <v>1066</v>
       </c>
-      <c r="CF59" t="n">
+      <c r="CG59" t="n">
         <v>1095</v>
       </c>
-      <c r="CG59" t="n">
+      <c r="CH59" t="n">
         <v>1129</v>
       </c>
-      <c r="CH59" t="n">
+      <c r="CI59" t="n">
         <v>1049</v>
       </c>
-      <c r="CI59" t="n">
+      <c r="CJ59" t="n">
         <v>997</v>
       </c>
-      <c r="CJ59" t="n">
+      <c r="CK59" t="n">
         <v>977</v>
       </c>
-      <c r="CK59" t="n">
+      <c r="CL59" t="n">
         <v>963</v>
       </c>
-      <c r="CL59" t="n">
+      <c r="CM59" t="n">
         <v>867</v>
       </c>
-      <c r="CM59" t="n">
+      <c r="CN59" t="n">
         <v>908</v>
       </c>
-      <c r="CN59" t="n">
+      <c r="CO59" t="n">
         <v>870</v>
       </c>
-      <c r="CO59" t="n">
+      <c r="CP59" t="n">
         <v>902</v>
-      </c>
-      <c r="CP59" t="n">
-        <v>875</v>
       </c>
       <c r="CQ59" t="n">
         <v>875</v>
@@ -17363,163 +17587,163 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ60" t="n">
         <v>-68074</v>
       </c>
-      <c r="AQ60" t="n">
+      <c r="AR60" t="n">
         <v>-16016</v>
       </c>
-      <c r="AR60" t="n">
+      <c r="AS60" t="n">
         <v>-18628</v>
       </c>
-      <c r="AS60" t="n">
+      <c r="AT60" t="n">
         <v>-26065</v>
       </c>
-      <c r="AT60" t="n">
+      <c r="AU60" t="n">
         <v>-21369</v>
       </c>
-      <c r="AU60" t="n">
+      <c r="AV60" t="n">
         <v>-21273</v>
       </c>
-      <c r="AV60" t="n">
+      <c r="AW60" t="n">
         <v>-22544</v>
       </c>
-      <c r="AW60" t="n">
+      <c r="AX60" t="n">
         <v>-23998</v>
       </c>
-      <c r="AX60" t="n">
+      <c r="AY60" t="n">
         <v>-23136</v>
       </c>
-      <c r="AY60" t="n">
+      <c r="AZ60" t="n">
         <v>-21168</v>
       </c>
-      <c r="AZ60" t="n">
+      <c r="BA60" t="n">
         <v>-20485</v>
       </c>
-      <c r="BA60" t="n">
+      <c r="BB60" t="n">
         <v>-20627</v>
       </c>
-      <c r="BB60" t="n">
+      <c r="BC60" t="n">
         <v>-20878</v>
       </c>
-      <c r="BC60" t="n">
+      <c r="BD60" t="n">
         <v>-21185</v>
       </c>
-      <c r="BD60" t="n">
+      <c r="BE60" t="n">
         <v>-21198</v>
       </c>
-      <c r="BE60" t="n">
+      <c r="BF60" t="n">
         <v>-22775</v>
       </c>
-      <c r="BF60" t="n">
+      <c r="BG60" t="n">
         <v>-23736</v>
       </c>
-      <c r="BG60" t="n">
+      <c r="BH60" t="n">
         <v>-24126</v>
       </c>
-      <c r="BH60" t="n">
+      <c r="BI60" t="n">
         <v>-24538</v>
       </c>
-      <c r="BI60" t="n">
+      <c r="BJ60" t="n">
         <v>-25390</v>
       </c>
-      <c r="BJ60" t="n">
+      <c r="BK60" t="n">
         <v>-24933</v>
       </c>
-      <c r="BK60" t="n">
+      <c r="BL60" t="n">
         <v>-24871</v>
       </c>
-      <c r="BL60" t="n">
+      <c r="BM60" t="n">
         <v>-21252</v>
       </c>
-      <c r="BM60" t="n">
+      <c r="BN60" t="n">
         <v>-21615</v>
       </c>
-      <c r="BN60" t="n">
+      <c r="BO60" t="n">
         <v>-21513</v>
       </c>
-      <c r="BO60" t="n">
+      <c r="BP60" t="n">
         <v>-22137</v>
       </c>
-      <c r="BP60" t="n">
+      <c r="BQ60" t="n">
         <v>-22403</v>
       </c>
-      <c r="BQ60" t="n">
+      <c r="BR60" t="n">
         <v>-23289</v>
       </c>
-      <c r="BR60" t="n">
+      <c r="BS60" t="n">
         <v>-23381</v>
       </c>
-      <c r="BS60" t="n">
+      <c r="BT60" t="n">
         <v>-22075</v>
       </c>
-      <c r="BT60" t="n">
+      <c r="BU60" t="n">
         <v>-20910</v>
       </c>
-      <c r="BU60" t="n">
+      <c r="BV60" t="n">
         <v>-21305</v>
       </c>
-      <c r="BV60" t="n">
+      <c r="BW60" t="n">
         <v>-22346</v>
       </c>
-      <c r="BW60" t="n">
+      <c r="BX60" t="n">
         <v>-21543</v>
       </c>
-      <c r="BX60" t="n">
+      <c r="BY60" t="n">
         <v>-23189</v>
       </c>
-      <c r="BY60" t="n">
+      <c r="BZ60" t="n">
         <v>-23624</v>
       </c>
-      <c r="BZ60" t="n">
+      <c r="CA60" t="n">
         <v>-24930</v>
       </c>
-      <c r="CA60" t="n">
+      <c r="CB60" t="n">
         <v>-25755</v>
       </c>
-      <c r="CB60" t="n">
+      <c r="CC60" t="n">
         <v>-25923</v>
       </c>
-      <c r="CC60" t="n">
+      <c r="CD60" t="n">
         <v>-24363</v>
       </c>
-      <c r="CD60" t="n">
+      <c r="CE60" t="n">
         <v>-26911</v>
       </c>
-      <c r="CE60" t="n">
+      <c r="CF60" t="n">
         <v>-27181</v>
       </c>
-      <c r="CF60" t="n">
+      <c r="CG60" t="n">
         <v>-27640</v>
       </c>
-      <c r="CG60" t="n">
+      <c r="CH60" t="n">
         <v>-28885</v>
       </c>
-      <c r="CH60" t="n">
+      <c r="CI60" t="n">
         <v>-30151</v>
       </c>
-      <c r="CI60" t="n">
+      <c r="CJ60" t="n">
         <v>-31812</v>
       </c>
-      <c r="CJ60" t="n">
+      <c r="CK60" t="n">
         <v>-34593</v>
       </c>
-      <c r="CK60" t="n">
+      <c r="CL60" t="n">
         <v>-38066</v>
       </c>
-      <c r="CL60" t="n">
+      <c r="CM60" t="n">
         <v>-39268.008</v>
       </c>
-      <c r="CM60" t="n">
+      <c r="CN60" t="n">
         <v>-38164</v>
       </c>
-      <c r="CN60" t="n">
+      <c r="CO60" t="n">
         <v>-37056</v>
       </c>
-      <c r="CO60" t="n">
+      <c r="CP60" t="n">
         <v>-37076</v>
-      </c>
-      <c r="CP60" t="n">
-        <v>-37559.008</v>
       </c>
       <c r="CQ60" t="n">
         <v>-37559.008</v>
@@ -17631,184 +17855,184 @@
         <v>117</v>
       </c>
       <c r="AI61" t="n">
+        <v>22942</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>115</v>
       </c>
-      <c r="AJ61" t="n">
+      <c r="AK61" t="n">
         <v>117</v>
       </c>
-      <c r="AK61" t="n">
+      <c r="AL61" t="n">
         <v>124</v>
       </c>
-      <c r="AL61" t="n">
+      <c r="AM61" t="n">
         <v>14982</v>
       </c>
-      <c r="AM61" t="n">
+      <c r="AN61" t="n">
         <v>4170</v>
       </c>
-      <c r="AN61" t="n">
+      <c r="AO61" t="n">
         <v>3195</v>
       </c>
-      <c r="AO61" t="n">
+      <c r="AP61" t="n">
         <v>3625</v>
       </c>
-      <c r="AP61" t="n">
+      <c r="AQ61" t="n">
         <v>-67827</v>
       </c>
-      <c r="AQ61" t="n">
+      <c r="AR61" t="n">
         <v>-12789</v>
       </c>
-      <c r="AR61" t="n">
+      <c r="AS61" t="n">
         <v>-13898</v>
       </c>
-      <c r="AS61" t="n">
+      <c r="AT61" t="n">
         <v>-22549</v>
       </c>
-      <c r="AT61" t="n">
+      <c r="AU61" t="n">
         <v>-17413</v>
       </c>
-      <c r="AU61" t="n">
+      <c r="AV61" t="n">
         <v>-16071</v>
       </c>
-      <c r="AV61" t="n">
+      <c r="AW61" t="n">
         <v>-16856</v>
       </c>
-      <c r="AW61" t="n">
+      <c r="AX61" t="n">
         <v>-15118</v>
       </c>
-      <c r="AX61" t="n">
+      <c r="AY61" t="n">
         <v>-15290</v>
       </c>
-      <c r="AY61" t="n">
+      <c r="AZ61" t="n">
         <v>-13894</v>
       </c>
-      <c r="AZ61" t="n">
+      <c r="BA61" t="n">
         <v>-13518</v>
       </c>
-      <c r="BA61" t="n">
+      <c r="BB61" t="n">
         <v>-13762</v>
       </c>
-      <c r="BB61" t="n">
+      <c r="BC61" t="n">
         <v>-14201</v>
       </c>
-      <c r="BC61" t="n">
+      <c r="BD61" t="n">
         <v>-15375</v>
       </c>
-      <c r="BD61" t="n">
+      <c r="BE61" t="n">
         <v>-15470</v>
       </c>
-      <c r="BE61" t="n">
+      <c r="BF61" t="n">
         <v>-16689</v>
       </c>
-      <c r="BF61" t="n">
+      <c r="BG61" t="n">
         <v>-16684</v>
       </c>
-      <c r="BG61" t="n">
+      <c r="BH61" t="n">
         <v>-17481</v>
       </c>
-      <c r="BH61" t="n">
+      <c r="BI61" t="n">
         <v>-17740</v>
       </c>
-      <c r="BI61" t="n">
+      <c r="BJ61" t="n">
         <v>-18444</v>
       </c>
-      <c r="BJ61" t="n">
+      <c r="BK61" t="n">
         <v>-17621</v>
       </c>
-      <c r="BK61" t="n">
+      <c r="BL61" t="n">
         <v>-17201</v>
       </c>
-      <c r="BL61" t="n">
+      <c r="BM61" t="n">
         <v>-13030</v>
       </c>
-      <c r="BM61" t="n">
+      <c r="BN61" t="n">
         <v>-13554</v>
       </c>
-      <c r="BN61" t="n">
+      <c r="BO61" t="n">
         <v>-14910</v>
       </c>
-      <c r="BO61" t="n">
+      <c r="BP61" t="n">
         <v>-16823</v>
       </c>
-      <c r="BP61" t="n">
+      <c r="BQ61" t="n">
         <v>-15821</v>
       </c>
-      <c r="BQ61" t="n">
+      <c r="BR61" t="n">
         <v>-16750</v>
       </c>
-      <c r="BR61" t="n">
+      <c r="BS61" t="n">
         <v>-16522</v>
       </c>
-      <c r="BS61" t="n">
+      <c r="BT61" t="n">
         <v>-15129</v>
       </c>
-      <c r="BT61" t="n">
+      <c r="BU61" t="n">
         <v>-15203</v>
       </c>
-      <c r="BU61" t="n">
+      <c r="BV61" t="n">
         <v>-14723</v>
       </c>
-      <c r="BV61" t="n">
+      <c r="BW61" t="n">
         <v>-15581</v>
       </c>
-      <c r="BW61" t="n">
+      <c r="BX61" t="n">
         <v>-14982</v>
       </c>
-      <c r="BX61" t="n">
+      <c r="BY61" t="n">
         <v>-15870</v>
       </c>
-      <c r="BY61" t="n">
+      <c r="BZ61" t="n">
         <v>-16479</v>
       </c>
-      <c r="BZ61" t="n">
+      <c r="CA61" t="n">
         <v>-17193</v>
       </c>
-      <c r="CA61" t="n">
+      <c r="CB61" t="n">
         <v>-18687</v>
       </c>
-      <c r="CB61" t="n">
+      <c r="CC61" t="n">
         <v>-10734</v>
       </c>
-      <c r="CC61" t="n">
+      <c r="CD61" t="n">
         <v>-24570</v>
       </c>
-      <c r="CD61" t="n">
+      <c r="CE61" t="n">
         <v>-23317</v>
       </c>
-      <c r="CE61" t="n">
+      <c r="CF61" t="n">
         <v>-26115</v>
       </c>
-      <c r="CF61" t="n">
+      <c r="CG61" t="n">
         <v>-26545</v>
       </c>
-      <c r="CG61" t="n">
+      <c r="CH61" t="n">
         <v>-27756</v>
       </c>
-      <c r="CH61" t="n">
+      <c r="CI61" t="n">
         <v>-29102</v>
       </c>
-      <c r="CI61" t="n">
+      <c r="CJ61" t="n">
         <v>-30815</v>
       </c>
-      <c r="CJ61" t="n">
+      <c r="CK61" t="n">
         <v>-33616</v>
       </c>
-      <c r="CK61" t="n">
+      <c r="CL61" t="n">
         <v>-37103</v>
       </c>
-      <c r="CL61" t="n">
+      <c r="CM61" t="n">
         <v>-38401.008</v>
       </c>
-      <c r="CM61" t="n">
+      <c r="CN61" t="n">
         <v>-37256</v>
       </c>
-      <c r="CN61" t="n">
+      <c r="CO61" t="n">
         <v>-36186</v>
       </c>
-      <c r="CO61" t="n">
+      <c r="CP61" t="n">
         <v>-36174</v>
-      </c>
-      <c r="CP61" t="n">
-        <v>-36684</v>
       </c>
       <c r="CQ61" t="n">
         <v>-36684</v>
@@ -17944,160 +18168,160 @@
         <v>0</v>
       </c>
       <c r="AQ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR62" t="n">
         <v>-37098</v>
       </c>
-      <c r="AR62" t="n">
+      <c r="AS62" t="n">
         <v>-36830</v>
       </c>
-      <c r="AS62" t="n">
+      <c r="AT62" t="n">
         <v>-39503</v>
       </c>
-      <c r="AT62" t="n">
+      <c r="AU62" t="n">
         <v>113431</v>
       </c>
-      <c r="AU62" t="n">
+      <c r="AV62" t="n">
         <v>-42764</v>
       </c>
-      <c r="AV62" t="n">
+      <c r="AW62" t="n">
         <v>-43593</v>
       </c>
-      <c r="AW62" t="n">
+      <c r="AX62" t="n">
         <v>-48020</v>
       </c>
-      <c r="AX62" t="n">
+      <c r="AY62" t="n">
         <v>134376.992</v>
       </c>
-      <c r="AY62" t="n">
+      <c r="AZ62" t="n">
         <v>-54040</v>
       </c>
-      <c r="AZ62" t="n">
+      <c r="BA62" t="n">
         <v>-49870</v>
       </c>
-      <c r="BA62" t="n">
+      <c r="BB62" t="n">
         <v>-48879</v>
       </c>
-      <c r="BB62" t="n">
+      <c r="BC62" t="n">
         <v>152788.992</v>
       </c>
-      <c r="BC62" t="n">
+      <c r="BD62" t="n">
         <v>-64615</v>
       </c>
-      <c r="BD62" t="n">
+      <c r="BE62" t="n">
         <v>-61534</v>
       </c>
-      <c r="BE62" t="n">
+      <c r="BF62" t="n">
         <v>-68540</v>
       </c>
-      <c r="BF62" t="n">
+      <c r="BG62" t="n">
         <v>194688.992</v>
       </c>
-      <c r="BG62" t="n">
+      <c r="BH62" t="n">
         <v>-80183</v>
       </c>
-      <c r="BH62" t="n">
+      <c r="BI62" t="n">
         <v>-76377</v>
       </c>
-      <c r="BI62" t="n">
+      <c r="BJ62" t="n">
         <v>-73404</v>
       </c>
-      <c r="BJ62" t="n">
+      <c r="BK62" t="n">
         <v>229964</v>
       </c>
-      <c r="BK62" t="n">
+      <c r="BL62" t="n">
         <v>-79580</v>
       </c>
-      <c r="BL62" t="n">
+      <c r="BM62" t="n">
         <v>-81542</v>
       </c>
-      <c r="BM62" t="n">
+      <c r="BN62" t="n">
         <v>-69465</v>
       </c>
-      <c r="BN62" t="n">
+      <c r="BO62" t="n">
         <v>-60909</v>
       </c>
-      <c r="BO62" t="n">
+      <c r="BP62" t="n">
         <v>-78326</v>
       </c>
-      <c r="BP62" t="n">
+      <c r="BQ62" t="n">
         <v>-74948</v>
       </c>
-      <c r="BQ62" t="n">
+      <c r="BR62" t="n">
         <v>-73530</v>
       </c>
-      <c r="BR62" t="n">
+      <c r="BS62" t="n">
         <v>-66920</v>
       </c>
-      <c r="BS62" t="n">
+      <c r="BT62" t="n">
         <v>-69050</v>
       </c>
-      <c r="BT62" t="n">
+      <c r="BU62" t="n">
         <v>-57881</v>
       </c>
-      <c r="BU62" t="n">
+      <c r="BV62" t="n">
         <v>-52413</v>
       </c>
-      <c r="BV62" t="n">
+      <c r="BW62" t="n">
         <v>-51234</v>
       </c>
-      <c r="BW62" t="n">
+      <c r="BX62" t="n">
         <v>-53454</v>
       </c>
-      <c r="BX62" t="n">
+      <c r="BY62" t="n">
         <v>-59349</v>
       </c>
-      <c r="BY62" t="n">
+      <c r="BZ62" t="n">
         <v>-58564</v>
       </c>
-      <c r="BZ62" t="n">
+      <c r="CA62" t="n">
         <v>-60685.992</v>
       </c>
-      <c r="CA62" t="n">
+      <c r="CB62" t="n">
         <v>-63694</v>
       </c>
-      <c r="CB62" t="n">
+      <c r="CC62" t="n">
         <v>-48232</v>
       </c>
-      <c r="CC62" t="n">
+      <c r="CD62" t="n">
         <v>-48071</v>
       </c>
-      <c r="CD62" t="n">
+      <c r="CE62" t="n">
         <v>-56046.008</v>
       </c>
-      <c r="CE62" t="n">
+      <c r="CF62" t="n">
         <v>-68431</v>
       </c>
-      <c r="CF62" t="n">
+      <c r="CG62" t="n">
         <v>-77512</v>
       </c>
-      <c r="CG62" t="n">
+      <c r="CH62" t="n">
         <v>-85221</v>
       </c>
-      <c r="CH62" t="n">
+      <c r="CI62" t="n">
         <v>-105914.016</v>
       </c>
-      <c r="CI62" t="n">
+      <c r="CJ62" t="n">
         <v>-106329</v>
       </c>
-      <c r="CJ62" t="n">
+      <c r="CK62" t="n">
         <v>-104877</v>
       </c>
-      <c r="CK62" t="n">
+      <c r="CL62" t="n">
         <v>-132311</v>
       </c>
-      <c r="CL62" t="n">
+      <c r="CM62" t="n">
         <v>-141752</v>
       </c>
-      <c r="CM62" t="n">
+      <c r="CN62" t="n">
         <v>-121695</v>
       </c>
-      <c r="CN62" t="n">
+      <c r="CO62" t="n">
         <v>-112239</v>
       </c>
-      <c r="CO62" t="n">
+      <c r="CP62" t="n">
         <v>-99358</v>
-      </c>
-      <c r="CP62" t="n">
-        <v>-89600</v>
       </c>
       <c r="CQ62" t="n">
         <v>-89600</v>
@@ -18209,184 +18433,184 @@
         <v>-680</v>
       </c>
       <c r="AI63" t="n">
+        <v>-127352</v>
+      </c>
+      <c r="AJ63" t="n">
         <v>-676</v>
       </c>
-      <c r="AJ63" t="n">
+      <c r="AK63" t="n">
         <v>-585</v>
       </c>
-      <c r="AK63" t="n">
+      <c r="AL63" t="n">
         <v>-571</v>
       </c>
-      <c r="AL63" t="n">
+      <c r="AM63" t="n">
         <v>-127878</v>
       </c>
-      <c r="AM63" t="n">
+      <c r="AN63" t="n">
         <v>-31062</v>
       </c>
-      <c r="AN63" t="n">
+      <c r="AO63" t="n">
         <v>-35333</v>
       </c>
-      <c r="AO63" t="n">
+      <c r="AP63" t="n">
         <v>-32955</v>
       </c>
-      <c r="AP63" t="n">
+      <c r="AQ63" t="n">
         <v>-95738.992</v>
       </c>
-      <c r="AQ63" t="n">
+      <c r="AR63" t="n">
         <v>-35265</v>
       </c>
-      <c r="AR63" t="n">
+      <c r="AS63" t="n">
         <v>-40963</v>
       </c>
-      <c r="AS63" t="n">
+      <c r="AT63" t="n">
         <v>-36935</v>
       </c>
-      <c r="AT63" t="n">
+      <c r="AU63" t="n">
         <v>-86617.992</v>
       </c>
-      <c r="AU63" t="n">
+      <c r="AV63" t="n">
         <v>-38338</v>
       </c>
-      <c r="AV63" t="n">
+      <c r="AW63" t="n">
         <v>-44676</v>
       </c>
-      <c r="AW63" t="n">
+      <c r="AX63" t="n">
         <v>-38453</v>
       </c>
-      <c r="AX63" t="n">
+      <c r="AY63" t="n">
         <v>-120821</v>
       </c>
-      <c r="AY63" t="n">
+      <c r="AZ63" t="n">
         <v>-22571</v>
       </c>
-      <c r="AZ63" t="n">
+      <c r="BA63" t="n">
         <v>-27468</v>
       </c>
-      <c r="BA63" t="n">
+      <c r="BB63" t="n">
         <v>-21721</v>
       </c>
-      <c r="BB63" t="n">
+      <c r="BC63" t="n">
         <v>-71888.992</v>
       </c>
-      <c r="BC63" t="n">
+      <c r="BD63" t="n">
         <v>-26357</v>
       </c>
-      <c r="BD63" t="n">
+      <c r="BE63" t="n">
         <v>-27339</v>
       </c>
-      <c r="BE63" t="n">
+      <c r="BF63" t="n">
         <v>-27034</v>
       </c>
-      <c r="BF63" t="n">
+      <c r="BG63" t="n">
         <v>-62984</v>
       </c>
-      <c r="BG63" t="n">
+      <c r="BH63" t="n">
         <v>-27713</v>
       </c>
-      <c r="BH63" t="n">
+      <c r="BI63" t="n">
         <v>-28484</v>
       </c>
-      <c r="BI63" t="n">
+      <c r="BJ63" t="n">
         <v>-28004</v>
       </c>
-      <c r="BJ63" t="n">
+      <c r="BK63" t="n">
         <v>-72705</v>
       </c>
-      <c r="BK63" t="n">
+      <c r="BL63" t="n">
         <v>-29731</v>
       </c>
-      <c r="BL63" t="n">
+      <c r="BM63" t="n">
         <v>-29610</v>
       </c>
-      <c r="BM63" t="n">
+      <c r="BN63" t="n">
         <v>-29136</v>
       </c>
-      <c r="BN63" t="n">
+      <c r="BO63" t="n">
         <v>-29599</v>
       </c>
-      <c r="BO63" t="n">
+      <c r="BP63" t="n">
         <v>-28583</v>
       </c>
-      <c r="BP63" t="n">
+      <c r="BQ63" t="n">
         <v>-31581</v>
       </c>
-      <c r="BQ63" t="n">
+      <c r="BR63" t="n">
         <v>-31626</v>
       </c>
-      <c r="BR63" t="n">
+      <c r="BS63" t="n">
         <v>-31353</v>
       </c>
-      <c r="BS63" t="n">
+      <c r="BT63" t="n">
         <v>-31731</v>
       </c>
-      <c r="BT63" t="n">
+      <c r="BU63" t="n">
         <v>-32066</v>
       </c>
-      <c r="BU63" t="n">
+      <c r="BV63" t="n">
         <v>-31713</v>
       </c>
-      <c r="BV63" t="n">
+      <c r="BW63" t="n">
         <v>-33559</v>
       </c>
-      <c r="BW63" t="n">
+      <c r="BX63" t="n">
         <v>-32222</v>
       </c>
-      <c r="BX63" t="n">
+      <c r="BY63" t="n">
         <v>-32330</v>
       </c>
-      <c r="BY63" t="n">
+      <c r="BZ63" t="n">
         <v>-33720</v>
       </c>
-      <c r="BZ63" t="n">
+      <c r="CA63" t="n">
         <v>-35914</v>
       </c>
-      <c r="CA63" t="n">
+      <c r="CB63" t="n">
         <v>-35989</v>
       </c>
-      <c r="CB63" t="n">
+      <c r="CC63" t="n">
         <v>-35591</v>
       </c>
-      <c r="CC63" t="n">
+      <c r="CD63" t="n">
         <v>-12167</v>
       </c>
-      <c r="CD63" t="n">
+      <c r="CE63" t="n">
         <v>-26143</v>
       </c>
-      <c r="CE63" t="n">
+      <c r="CF63" t="n">
         <v>-22462</v>
       </c>
-      <c r="CF63" t="n">
+      <c r="CG63" t="n">
         <v>-24944</v>
       </c>
-      <c r="CG63" t="n">
+      <c r="CH63" t="n">
         <v>-23109</v>
       </c>
-      <c r="CH63" t="n">
+      <c r="CI63" t="n">
         <v>-25946</v>
       </c>
-      <c r="CI63" t="n">
+      <c r="CJ63" t="n">
         <v>-25044</v>
       </c>
-      <c r="CJ63" t="n">
+      <c r="CK63" t="n">
         <v>-28460</v>
       </c>
-      <c r="CK63" t="n">
+      <c r="CL63" t="n">
         <v>-30597</v>
       </c>
-      <c r="CL63" t="n">
+      <c r="CM63" t="n">
         <v>-34530</v>
       </c>
-      <c r="CM63" t="n">
+      <c r="CN63" t="n">
         <v>-31336</v>
       </c>
-      <c r="CN63" t="n">
+      <c r="CO63" t="n">
         <v>-34626</v>
       </c>
-      <c r="CO63" t="n">
+      <c r="CP63" t="n">
         <v>-32248</v>
-      </c>
-      <c r="CP63" t="n">
-        <v>-30690</v>
       </c>
       <c r="CQ63" t="n">
         <v>-30690</v>
@@ -18439,9 +18663,7 @@
       <c r="AN64" t="inlineStr"/>
       <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr"/>
-      <c r="AQ64" t="n">
-        <v>0</v>
-      </c>
+      <c r="AQ64" t="inlineStr"/>
       <c r="AR64" t="n">
         <v>0</v>
       </c>
@@ -18705,184 +18927,184 @@
         <v>0</v>
       </c>
       <c r="AI65" t="n">
+        <v>643852.992</v>
+      </c>
+      <c r="AJ65" t="n">
         <v>2055</v>
       </c>
-      <c r="AJ65" t="n">
+      <c r="AK65" t="n">
         <v>26</v>
       </c>
-      <c r="AK65" t="n">
+      <c r="AL65" t="n">
         <v>-26</v>
       </c>
-      <c r="AL65" t="n">
+      <c r="AM65" t="n">
         <v>659465.024</v>
       </c>
-      <c r="AM65" t="n">
+      <c r="AN65" t="n">
         <v>152790</v>
       </c>
-      <c r="AN65" t="n">
+      <c r="AO65" t="n">
         <v>143911.008</v>
       </c>
-      <c r="AO65" t="n">
+      <c r="AP65" t="n">
         <v>146516.992</v>
       </c>
-      <c r="AP65" t="n">
+      <c r="AQ65" t="n">
         <v>-140520.016</v>
       </c>
-      <c r="AQ65" t="n">
+      <c r="AR65" t="n">
         <v>79838</v>
       </c>
-      <c r="AR65" t="n">
+      <c r="AS65" t="n">
         <v>75717</v>
       </c>
-      <c r="AS65" t="n">
+      <c r="AT65" t="n">
         <v>83142</v>
       </c>
-      <c r="AT65" t="n">
+      <c r="AU65" t="n">
         <v>93867</v>
       </c>
-      <c r="AU65" t="n">
+      <c r="AV65" t="n">
         <v>81342</v>
       </c>
-      <c r="AV65" t="n">
+      <c r="AW65" t="n">
         <v>67547</v>
       </c>
-      <c r="AW65" t="n">
+      <c r="AX65" t="n">
         <v>80492</v>
       </c>
-      <c r="AX65" t="n">
+      <c r="AY65" t="n">
         <v>190588</v>
       </c>
-      <c r="AY65" t="n">
+      <c r="AZ65" t="n">
         <v>88544</v>
       </c>
-      <c r="AZ65" t="n">
+      <c r="BA65" t="n">
         <v>92648</v>
       </c>
-      <c r="BA65" t="n">
+      <c r="BB65" t="n">
         <v>87730</v>
       </c>
-      <c r="BB65" t="n">
+      <c r="BC65" t="n">
         <v>106349.008</v>
       </c>
-      <c r="BC65" t="n">
+      <c r="BD65" t="n">
         <v>113223</v>
       </c>
-      <c r="BD65" t="n">
+      <c r="BE65" t="n">
         <v>110689</v>
       </c>
-      <c r="BE65" t="n">
+      <c r="BF65" t="n">
         <v>112589</v>
       </c>
-      <c r="BF65" t="n">
+      <c r="BG65" t="n">
         <v>109595.992</v>
       </c>
-      <c r="BG65" t="n">
+      <c r="BH65" t="n">
         <v>124709</v>
       </c>
-      <c r="BH65" t="n">
+      <c r="BI65" t="n">
         <v>117250</v>
       </c>
-      <c r="BI65" t="n">
+      <c r="BJ65" t="n">
         <v>120054</v>
       </c>
-      <c r="BJ65" t="n">
+      <c r="BK65" t="n">
         <v>118574.008</v>
       </c>
-      <c r="BK65" t="n">
+      <c r="BL65" t="n">
         <v>120003</v>
       </c>
-      <c r="BL65" t="n">
+      <c r="BM65" t="n">
         <v>121149</v>
       </c>
-      <c r="BM65" t="n">
+      <c r="BN65" t="n">
         <v>109449</v>
       </c>
-      <c r="BN65" t="n">
+      <c r="BO65" t="n">
         <v>100655</v>
       </c>
-      <c r="BO65" t="n">
+      <c r="BP65" t="n">
         <v>116999</v>
       </c>
-      <c r="BP65" t="n">
+      <c r="BQ65" t="n">
         <v>114554</v>
       </c>
-      <c r="BQ65" t="n">
+      <c r="BR65" t="n">
         <v>143106</v>
       </c>
-      <c r="BR65" t="n">
+      <c r="BS65" t="n">
         <v>113041.992</v>
       </c>
-      <c r="BS65" t="n">
+      <c r="BT65" t="n">
         <v>113550</v>
       </c>
-      <c r="BT65" t="n">
+      <c r="BU65" t="n">
         <v>101503</v>
       </c>
-      <c r="BU65" t="n">
+      <c r="BV65" t="n">
         <v>100360</v>
       </c>
-      <c r="BV65" t="n">
+      <c r="BW65" t="n">
         <v>97039</v>
       </c>
-      <c r="BW65" t="n">
+      <c r="BX65" t="n">
         <v>100363</v>
       </c>
-      <c r="BX65" t="n">
+      <c r="BY65" t="n">
         <v>100390</v>
       </c>
-      <c r="BY65" t="n">
+      <c r="BZ65" t="n">
         <v>103286</v>
       </c>
-      <c r="BZ65" t="n">
+      <c r="CA65" t="n">
         <v>110460.008</v>
       </c>
-      <c r="CA65" t="n">
+      <c r="CB65" t="n">
         <v>104929</v>
       </c>
-      <c r="CB65" t="n">
+      <c r="CC65" t="n">
         <v>-134</v>
       </c>
-      <c r="CC65" t="n">
+      <c r="CD65" t="n">
         <v>204299.008</v>
       </c>
-      <c r="CD65" t="n">
+      <c r="CE65" t="n">
         <v>108238.984</v>
       </c>
-      <c r="CE65" t="n">
+      <c r="CF65" t="n">
         <v>109156</v>
       </c>
-      <c r="CF65" t="n">
+      <c r="CG65" t="n">
         <v>115033</v>
       </c>
-      <c r="CG65" t="n">
+      <c r="CH65" t="n">
         <v>119798</v>
       </c>
-      <c r="CH65" t="n">
+      <c r="CI65" t="n">
         <v>132588.008</v>
       </c>
-      <c r="CI65" t="n">
+      <c r="CJ65" t="n">
         <v>144211.008</v>
       </c>
-      <c r="CJ65" t="n">
+      <c r="CK65" t="n">
         <v>162408</v>
       </c>
-      <c r="CK65" t="n">
+      <c r="CL65" t="n">
         <v>244427.008</v>
       </c>
-      <c r="CL65" t="n">
+      <c r="CM65" t="n">
         <v>199382.016</v>
       </c>
-      <c r="CM65" t="n">
+      <c r="CN65" t="n">
         <v>183739.008</v>
       </c>
-      <c r="CN65" t="n">
+      <c r="CO65" t="n">
         <v>175564.992</v>
       </c>
-      <c r="CO65" t="n">
+      <c r="CP65" t="n">
         <v>172246</v>
-      </c>
-      <c r="CP65" t="n">
-        <v>148344.016</v>
       </c>
       <c r="CQ65" t="n">
         <v>148344.016</v>
@@ -18994,184 +19216,184 @@
         <v>-108</v>
       </c>
       <c r="AI66" t="n">
+        <v>-467527.008</v>
+      </c>
+      <c r="AJ66" t="n">
         <v>-240</v>
       </c>
-      <c r="AJ66" t="n">
+      <c r="AK66" t="n">
         <v>-151</v>
       </c>
-      <c r="AK66" t="n">
+      <c r="AL66" t="n">
         <v>-65</v>
       </c>
-      <c r="AL66" t="n">
+      <c r="AM66" t="n">
         <v>-479088</v>
       </c>
-      <c r="AM66" t="n">
+      <c r="AN66" t="n">
         <v>-91051</v>
       </c>
-      <c r="AN66" t="n">
+      <c r="AO66" t="n">
         <v>-115714</v>
       </c>
-      <c r="AO66" t="n">
+      <c r="AP66" t="n">
         <v>-104236</v>
       </c>
-      <c r="AP66" t="n">
+      <c r="AQ66" t="n">
         <v>168656.992</v>
       </c>
-      <c r="AQ66" t="n">
+      <c r="AR66" t="n">
         <v>-12683</v>
       </c>
-      <c r="AR66" t="n">
+      <c r="AS66" t="n">
         <v>-11502</v>
       </c>
-      <c r="AS66" t="n">
+      <c r="AT66" t="n">
         <v>-14043</v>
       </c>
-      <c r="AT66" t="n">
+      <c r="AU66" t="n">
         <v>-124476.992</v>
       </c>
-      <c r="AU66" t="n">
+      <c r="AV66" t="n">
         <v>-11897</v>
       </c>
-      <c r="AV66" t="n">
+      <c r="AW66" t="n">
         <v>-13345</v>
       </c>
-      <c r="AW66" t="n">
+      <c r="AX66" t="n">
         <v>-14692</v>
       </c>
-      <c r="AX66" t="n">
+      <c r="AY66" t="n">
         <v>-202206</v>
       </c>
-      <c r="AY66" t="n">
+      <c r="AZ66" t="n">
         <v>-8062</v>
       </c>
-      <c r="AZ66" t="n">
+      <c r="BA66" t="n">
         <v>-4109</v>
       </c>
-      <c r="BA66" t="n">
+      <c r="BB66" t="n">
         <v>-8133</v>
       </c>
-      <c r="BB66" t="n">
+      <c r="BC66" t="n">
         <v>-180232</v>
       </c>
-      <c r="BC66" t="n">
+      <c r="BD66" t="n">
         <v>-8871</v>
       </c>
-      <c r="BD66" t="n">
+      <c r="BE66" t="n">
         <v>-10547</v>
       </c>
-      <c r="BE66" t="n">
+      <c r="BF66" t="n">
         <v>-7084</v>
       </c>
-      <c r="BF66" t="n">
+      <c r="BG66" t="n">
         <v>-231804</v>
       </c>
-      <c r="BG66" t="n">
+      <c r="BH66" t="n">
         <v>-7771</v>
       </c>
-      <c r="BH66" t="n">
+      <c r="BI66" t="n">
         <v>-8835</v>
       </c>
-      <c r="BI66" t="n">
+      <c r="BJ66" t="n">
         <v>-7873</v>
       </c>
-      <c r="BJ66" t="n">
+      <c r="BK66" t="n">
         <v>-274901.984</v>
       </c>
-      <c r="BK66" t="n">
+      <c r="BL66" t="n">
         <v>-7123</v>
       </c>
-      <c r="BL66" t="n">
+      <c r="BM66" t="n">
         <v>-8677</v>
       </c>
-      <c r="BM66" t="n">
+      <c r="BN66" t="n">
         <v>-7620</v>
       </c>
-      <c r="BN66" t="n">
+      <c r="BO66" t="n">
         <v>-8874</v>
       </c>
-      <c r="BO66" t="n">
+      <c r="BP66" t="n">
         <v>-8063</v>
       </c>
-      <c r="BP66" t="n">
+      <c r="BQ66" t="n">
         <v>-8363</v>
       </c>
-      <c r="BQ66" t="n">
+      <c r="BR66" t="n">
         <v>-33433</v>
       </c>
-      <c r="BR66" t="n">
+      <c r="BS66" t="n">
         <v>-3051</v>
       </c>
-      <c r="BS66" t="n">
+      <c r="BT66" t="n">
         <v>-6635</v>
       </c>
-      <c r="BT66" t="n">
+      <c r="BU66" t="n">
         <v>-4877</v>
       </c>
-      <c r="BU66" t="n">
+      <c r="BV66" t="n">
         <v>-6752</v>
       </c>
-      <c r="BV66" t="n">
+      <c r="BW66" t="n">
         <v>-7045</v>
       </c>
-      <c r="BW66" t="n">
+      <c r="BX66" t="n">
         <v>-6769</v>
       </c>
-      <c r="BX66" t="n">
+      <c r="BY66" t="n">
         <v>-5307</v>
       </c>
-      <c r="BY66" t="n">
+      <c r="BZ66" t="n">
         <v>-7423</v>
       </c>
-      <c r="BZ66" t="n">
+      <c r="CA66" t="n">
         <v>-7077</v>
       </c>
-      <c r="CA66" t="n">
+      <c r="CB66" t="n">
         <v>-5975</v>
       </c>
-      <c r="CB66" t="n">
+      <c r="CC66" t="n">
         <v>-21753</v>
       </c>
-      <c r="CC66" t="n">
+      <c r="CD66" t="n">
         <v>9492</v>
       </c>
-      <c r="CD66" t="n">
+      <c r="CE66" t="n">
         <v>-4333</v>
       </c>
-      <c r="CE66" t="n">
+      <c r="CF66" t="n">
         <v>-4349</v>
       </c>
-      <c r="CF66" t="n">
+      <c r="CG66" t="n">
         <v>-4417</v>
       </c>
-      <c r="CG66" t="n">
+      <c r="CH66" t="n">
         <v>-4927</v>
       </c>
-      <c r="CH66" t="n">
+      <c r="CI66" t="n">
         <v>-7302</v>
       </c>
-      <c r="CI66" t="n">
+      <c r="CJ66" t="n">
         <v>-4978</v>
       </c>
-      <c r="CJ66" t="n">
+      <c r="CK66" t="n">
         <v>-4341</v>
       </c>
-      <c r="CK66" t="n">
+      <c r="CL66" t="n">
         <v>-6777</v>
       </c>
-      <c r="CL66" t="n">
+      <c r="CM66" t="n">
         <v>-4327</v>
       </c>
-      <c r="CM66" t="n">
+      <c r="CN66" t="n">
         <v>-3578</v>
       </c>
-      <c r="CN66" t="n">
+      <c r="CO66" t="n">
         <v>-5084</v>
       </c>
-      <c r="CO66" t="n">
+      <c r="CP66" t="n">
         <v>-3553</v>
-      </c>
-      <c r="CP66" t="n">
-        <v>-4854</v>
       </c>
       <c r="CQ66" t="n">
         <v>-4854</v>
@@ -19283,184 +19505,184 @@
         <v>20342</v>
       </c>
       <c r="AI67" t="n">
+        <v>8404</v>
+      </c>
+      <c r="AJ67" t="n">
         <v>11652</v>
       </c>
-      <c r="AJ67" t="n">
+      <c r="AK67" t="n">
         <v>11382</v>
       </c>
-      <c r="AK67" t="n">
+      <c r="AL67" t="n">
         <v>9373</v>
       </c>
-      <c r="AL67" t="n">
+      <c r="AM67" t="n">
         <v>-20176</v>
       </c>
-      <c r="AM67" t="n">
+      <c r="AN67" t="n">
         <v>13340</v>
       </c>
-      <c r="AN67" t="n">
+      <c r="AO67" t="n">
         <v>-5025</v>
       </c>
-      <c r="AO67" t="n">
+      <c r="AP67" t="n">
         <v>10638</v>
       </c>
-      <c r="AP67" t="n">
+      <c r="AQ67" t="n">
         <v>1655</v>
       </c>
-      <c r="AQ67" t="n">
+      <c r="AR67" t="n">
         <v>3204</v>
       </c>
-      <c r="AR67" t="n">
+      <c r="AS67" t="n">
         <v>5888</v>
       </c>
-      <c r="AS67" t="n">
+      <c r="AT67" t="n">
         <v>6135</v>
       </c>
-      <c r="AT67" t="n">
+      <c r="AU67" t="n">
         <v>6117</v>
       </c>
-      <c r="AU67" t="n">
+      <c r="AV67" t="n">
         <v>5938</v>
       </c>
-      <c r="AV67" t="n">
+      <c r="AW67" t="n">
         <v>5344</v>
       </c>
-      <c r="AW67" t="n">
+      <c r="AX67" t="n">
         <v>6332</v>
       </c>
-      <c r="AX67" t="n">
+      <c r="AY67" t="n">
         <v>13929</v>
       </c>
-      <c r="AY67" t="n">
+      <c r="AZ67" t="n">
         <v>18867</v>
       </c>
-      <c r="AZ67" t="n">
+      <c r="BA67" t="n">
         <v>19720</v>
       </c>
-      <c r="BA67" t="n">
+      <c r="BB67" t="n">
         <v>3589</v>
       </c>
-      <c r="BB67" t="n">
+      <c r="BC67" t="n">
         <v>13368</v>
       </c>
-      <c r="BC67" t="n">
+      <c r="BD67" t="n">
         <v>7559</v>
       </c>
-      <c r="BD67" t="n">
+      <c r="BE67" t="n">
         <v>4060</v>
       </c>
-      <c r="BE67" t="n">
+      <c r="BF67" t="n">
         <v>14600</v>
       </c>
-      <c r="BF67" t="n">
+      <c r="BG67" t="n">
         <v>13391</v>
       </c>
-      <c r="BG67" t="n">
+      <c r="BH67" t="n">
         <v>14353</v>
       </c>
-      <c r="BH67" t="n">
+      <c r="BI67" t="n">
         <v>14208</v>
       </c>
-      <c r="BI67" t="n">
+      <c r="BJ67" t="n">
         <v>15169</v>
       </c>
-      <c r="BJ67" t="n">
+      <c r="BK67" t="n">
         <v>23911</v>
       </c>
-      <c r="BK67" t="n">
+      <c r="BL67" t="n">
         <v>14888</v>
       </c>
-      <c r="BL67" t="n">
+      <c r="BM67" t="n">
         <v>13379</v>
       </c>
-      <c r="BM67" t="n">
+      <c r="BN67" t="n">
         <v>14934</v>
       </c>
-      <c r="BN67" t="n">
+      <c r="BO67" t="n">
         <v>14324</v>
       </c>
-      <c r="BO67" t="n">
+      <c r="BP67" t="n">
         <v>7122</v>
       </c>
-      <c r="BP67" t="n">
+      <c r="BQ67" t="n">
         <v>13027</v>
       </c>
-      <c r="BQ67" t="n">
+      <c r="BR67" t="n">
         <v>5440</v>
       </c>
-      <c r="BR67" t="n">
+      <c r="BS67" t="n">
         <v>16050</v>
       </c>
-      <c r="BS67" t="n">
+      <c r="BT67" t="n">
         <v>12749</v>
       </c>
-      <c r="BT67" t="n">
+      <c r="BU67" t="n">
         <v>10084</v>
       </c>
-      <c r="BU67" t="n">
+      <c r="BV67" t="n">
         <v>7635</v>
       </c>
-      <c r="BV67" t="n">
+      <c r="BW67" t="n">
         <v>18087</v>
       </c>
-      <c r="BW67" t="n">
+      <c r="BX67" t="n">
         <v>12680</v>
       </c>
-      <c r="BX67" t="n">
+      <c r="BY67" t="n">
         <v>10004</v>
       </c>
-      <c r="BY67" t="n">
+      <c r="BZ67" t="n">
         <v>15791</v>
       </c>
-      <c r="BZ67" t="n">
+      <c r="CA67" t="n">
         <v>17652</v>
       </c>
-      <c r="CA67" t="n">
+      <c r="CB67" t="n">
         <v>11256</v>
       </c>
-      <c r="CB67" t="n">
+      <c r="CC67" t="n">
         <v>14199</v>
       </c>
-      <c r="CC67" t="n">
+      <c r="CD67" t="n">
         <v>13775</v>
       </c>
-      <c r="CD67" t="n">
+      <c r="CE67" t="n">
         <v>15692</v>
       </c>
-      <c r="CE67" t="n">
+      <c r="CF67" t="n">
         <v>12089</v>
       </c>
-      <c r="CF67" t="n">
+      <c r="CG67" t="n">
         <v>16631</v>
       </c>
-      <c r="CG67" t="n">
+      <c r="CH67" t="n">
         <v>16531</v>
       </c>
-      <c r="CH67" t="n">
+      <c r="CI67" t="n">
         <v>18213</v>
       </c>
-      <c r="CI67" t="n">
+      <c r="CJ67" t="n">
         <v>12975</v>
       </c>
-      <c r="CJ67" t="n">
+      <c r="CK67" t="n">
         <v>18620</v>
       </c>
-      <c r="CK67" t="n">
+      <c r="CL67" t="n">
         <v>23489</v>
       </c>
-      <c r="CL67" t="n">
+      <c r="CM67" t="n">
         <v>11907</v>
       </c>
-      <c r="CM67" t="n">
+      <c r="CN67" t="n">
         <v>1583</v>
       </c>
-      <c r="CN67" t="n">
+      <c r="CO67" t="n">
         <v>12482</v>
       </c>
-      <c r="CO67" t="n">
+      <c r="CP67" t="n">
         <v>8619</v>
-      </c>
-      <c r="CP67" t="n">
-        <v>-15792</v>
       </c>
       <c r="CQ67" t="n">
         <v>-15792</v>
@@ -19572,184 +19794,184 @@
         <v>447</v>
       </c>
       <c r="AI68" t="n">
+        <v>30470</v>
+      </c>
+      <c r="AJ68" t="n">
         <v>432</v>
       </c>
-      <c r="AJ68" t="n">
+      <c r="AK68" t="n">
         <v>-3162</v>
       </c>
-      <c r="AK68" t="n">
+      <c r="AL68" t="n">
         <v>204</v>
       </c>
-      <c r="AL68" t="n">
+      <c r="AM68" t="n">
         <v>21832</v>
       </c>
-      <c r="AM68" t="n">
+      <c r="AN68" t="n">
         <v>13711</v>
       </c>
-      <c r="AN68" t="n">
+      <c r="AO68" t="n">
         <v>5022</v>
       </c>
-      <c r="AO68" t="n">
+      <c r="AP68" t="n">
         <v>3487</v>
       </c>
-      <c r="AP68" t="n">
+      <c r="AQ68" t="n">
         <v>146424</v>
       </c>
-      <c r="AQ68" t="n">
+      <c r="AR68" t="n">
         <v>39082</v>
       </c>
-      <c r="AR68" t="n">
+      <c r="AS68" t="n">
         <v>54565</v>
       </c>
-      <c r="AS68" t="n">
+      <c r="AT68" t="n">
         <v>52299</v>
       </c>
-      <c r="AT68" t="n">
+      <c r="AU68" t="n">
         <v>46125.008</v>
       </c>
-      <c r="AU68" t="n">
+      <c r="AV68" t="n">
         <v>55915</v>
       </c>
-      <c r="AV68" t="n">
+      <c r="AW68" t="n">
         <v>66019</v>
       </c>
-      <c r="AW68" t="n">
+      <c r="AX68" t="n">
         <v>68467</v>
       </c>
-      <c r="AX68" t="n">
+      <c r="AY68" t="n">
         <v>53395</v>
       </c>
-      <c r="AY68" t="n">
+      <c r="AZ68" t="n">
         <v>12224</v>
       </c>
-      <c r="AZ68" t="n">
+      <c r="BA68" t="n">
         <v>11878</v>
       </c>
-      <c r="BA68" t="n">
+      <c r="BB68" t="n">
         <v>15977</v>
       </c>
-      <c r="BB68" t="n">
+      <c r="BC68" t="n">
         <v>18523</v>
       </c>
-      <c r="BC68" t="n">
+      <c r="BD68" t="n">
         <v>16618</v>
       </c>
-      <c r="BD68" t="n">
+      <c r="BE68" t="n">
         <v>16705</v>
       </c>
-      <c r="BE68" t="n">
+      <c r="BF68" t="n">
         <v>17893</v>
       </c>
-      <c r="BF68" t="n">
+      <c r="BG68" t="n">
         <v>18774</v>
       </c>
-      <c r="BG68" t="n">
+      <c r="BH68" t="n">
         <v>15591</v>
       </c>
-      <c r="BH68" t="n">
+      <c r="BI68" t="n">
         <v>32086</v>
       </c>
-      <c r="BI68" t="n">
+      <c r="BJ68" t="n">
         <v>24722</v>
       </c>
-      <c r="BJ68" t="n">
+      <c r="BK68" t="n">
         <v>25215</v>
       </c>
-      <c r="BK68" t="n">
+      <c r="BL68" t="n">
         <v>25083</v>
       </c>
-      <c r="BL68" t="n">
+      <c r="BM68" t="n">
         <v>26735</v>
       </c>
-      <c r="BM68" t="n">
+      <c r="BN68" t="n">
         <v>28433</v>
       </c>
-      <c r="BN68" t="n">
+      <c r="BO68" t="n">
         <v>34426</v>
       </c>
-      <c r="BO68" t="n">
+      <c r="BP68" t="n">
         <v>26634</v>
       </c>
-      <c r="BP68" t="n">
+      <c r="BQ68" t="n">
         <v>26904</v>
       </c>
-      <c r="BQ68" t="n">
+      <c r="BR68" t="n">
         <v>25727</v>
       </c>
-      <c r="BR68" t="n">
+      <c r="BS68" t="n">
         <v>35894</v>
       </c>
-      <c r="BS68" t="n">
+      <c r="BT68" t="n">
         <v>23619</v>
       </c>
-      <c r="BT68" t="n">
+      <c r="BU68" t="n">
         <v>28207</v>
       </c>
-      <c r="BU68" t="n">
+      <c r="BV68" t="n">
         <v>32860</v>
       </c>
-      <c r="BV68" t="n">
+      <c r="BW68" t="n">
         <v>16055</v>
       </c>
-      <c r="BW68" t="n">
+      <c r="BX68" t="n">
         <v>19273</v>
       </c>
-      <c r="BX68" t="n">
+      <c r="BY68" t="n">
         <v>17603</v>
       </c>
-      <c r="BY68" t="n">
+      <c r="BZ68" t="n">
         <v>24255</v>
       </c>
-      <c r="BZ68" t="n">
+      <c r="CA68" t="n">
         <v>19023</v>
       </c>
-      <c r="CA68" t="n">
+      <c r="CB68" t="n">
         <v>29041</v>
       </c>
-      <c r="CB68" t="n">
+      <c r="CC68" t="n">
         <v>129276</v>
       </c>
-      <c r="CC68" t="n">
+      <c r="CD68" t="n">
         <v>-123669</v>
       </c>
-      <c r="CD68" t="n">
+      <c r="CE68" t="n">
         <v>-1136</v>
       </c>
-      <c r="CE68" t="n">
+      <c r="CF68" t="n">
         <v>6338</v>
       </c>
-      <c r="CF68" t="n">
+      <c r="CG68" t="n">
         <v>1137</v>
       </c>
-      <c r="CG68" t="n">
+      <c r="CH68" t="n">
         <v>9469</v>
       </c>
-      <c r="CH68" t="n">
+      <c r="CI68" t="n">
         <v>11884</v>
       </c>
-      <c r="CI68" t="n">
+      <c r="CJ68" t="n">
         <v>14694</v>
       </c>
-      <c r="CJ68" t="n">
+      <c r="CK68" t="n">
         <v>18290</v>
       </c>
-      <c r="CK68" t="n">
+      <c r="CL68" t="n">
         <v>21381</v>
       </c>
-      <c r="CL68" t="n">
+      <c r="CM68" t="n">
         <v>22050</v>
       </c>
-      <c r="CM68" t="n">
+      <c r="CN68" t="n">
         <v>27122</v>
       </c>
-      <c r="CN68" t="n">
+      <c r="CO68" t="n">
         <v>19781</v>
       </c>
-      <c r="CO68" t="n">
+      <c r="CP68" t="n">
         <v>30449</v>
-      </c>
-      <c r="CP68" t="n">
-        <v>24597</v>
       </c>
       <c r="CQ68" t="n">
         <v>24597</v>
@@ -19861,184 +20083,184 @@
         <v>464</v>
       </c>
       <c r="AI69" t="n">
+        <v>50313</v>
+      </c>
+      <c r="AJ69" t="n">
         <v>432</v>
       </c>
-      <c r="AJ69" t="n">
+      <c r="AK69" t="n">
         <v>261</v>
       </c>
-      <c r="AK69" t="n">
+      <c r="AL69" t="n">
         <v>275</v>
       </c>
-      <c r="AL69" t="n">
+      <c r="AM69" t="n">
         <v>54669</v>
       </c>
-      <c r="AM69" t="n">
+      <c r="AN69" t="n">
         <v>19218</v>
       </c>
-      <c r="AN69" t="n">
+      <c r="AO69" t="n">
         <v>6726</v>
       </c>
-      <c r="AO69" t="n">
+      <c r="AP69" t="n">
         <v>14399</v>
       </c>
-      <c r="AP69" t="n">
+      <c r="AQ69" t="n">
         <v>470612.992</v>
       </c>
-      <c r="AQ69" t="n">
+      <c r="AR69" t="n">
         <v>114529</v>
       </c>
-      <c r="AR69" t="n">
+      <c r="AS69" t="n">
         <v>140980.992</v>
       </c>
-      <c r="AS69" t="n">
+      <c r="AT69" t="n">
         <v>165507.008</v>
       </c>
-      <c r="AT69" t="n">
+      <c r="AU69" t="n">
         <v>187322.016</v>
       </c>
-      <c r="AU69" t="n">
+      <c r="AV69" t="n">
         <v>152382</v>
       </c>
-      <c r="AV69" t="n">
+      <c r="AW69" t="n">
         <v>177728.992</v>
       </c>
-      <c r="AW69" t="n">
+      <c r="AX69" t="n">
         <v>144430</v>
       </c>
-      <c r="AX69" t="n">
+      <c r="AY69" t="n">
         <v>147464</v>
       </c>
-      <c r="AY69" t="n">
+      <c r="AZ69" t="n">
         <v>33257</v>
       </c>
-      <c r="AZ69" t="n">
+      <c r="BA69" t="n">
         <v>42433</v>
       </c>
-      <c r="BA69" t="n">
+      <c r="BB69" t="n">
         <v>37023</v>
       </c>
-      <c r="BB69" t="n">
+      <c r="BC69" t="n">
         <v>42338.008</v>
       </c>
-      <c r="BC69" t="n">
+      <c r="BD69" t="n">
         <v>43808</v>
       </c>
-      <c r="BD69" t="n">
+      <c r="BE69" t="n">
         <v>42838</v>
       </c>
-      <c r="BE69" t="n">
+      <c r="BF69" t="n">
         <v>49597</v>
       </c>
-      <c r="BF69" t="n">
+      <c r="BG69" t="n">
         <v>52797.992</v>
       </c>
-      <c r="BG69" t="n">
+      <c r="BH69" t="n">
         <v>54230</v>
       </c>
-      <c r="BH69" t="n">
+      <c r="BI69" t="n">
         <v>65504</v>
       </c>
-      <c r="BI69" t="n">
+      <c r="BJ69" t="n">
         <v>58667</v>
       </c>
-      <c r="BJ69" t="n">
+      <c r="BK69" t="n">
         <v>69474.008</v>
       </c>
-      <c r="BK69" t="n">
+      <c r="BL69" t="n">
         <v>66394</v>
       </c>
-      <c r="BL69" t="n">
+      <c r="BM69" t="n">
         <v>65684</v>
       </c>
-      <c r="BM69" t="n">
+      <c r="BN69" t="n">
         <v>70463</v>
       </c>
-      <c r="BN69" t="n">
+      <c r="BO69" t="n">
         <v>79751</v>
       </c>
-      <c r="BO69" t="n">
+      <c r="BP69" t="n">
         <v>68271</v>
       </c>
-      <c r="BP69" t="n">
+      <c r="BQ69" t="n">
         <v>57773</v>
       </c>
-      <c r="BQ69" t="n">
+      <c r="BR69" t="n">
         <v>59594</v>
       </c>
-      <c r="BR69" t="n">
+      <c r="BS69" t="n">
         <v>58265.008</v>
       </c>
-      <c r="BS69" t="n">
+      <c r="BT69" t="n">
         <v>47574</v>
       </c>
-      <c r="BT69" t="n">
+      <c r="BU69" t="n">
         <v>44452</v>
       </c>
-      <c r="BU69" t="n">
+      <c r="BV69" t="n">
         <v>53460</v>
       </c>
-      <c r="BV69" t="n">
+      <c r="BW69" t="n">
         <v>45290.992</v>
       </c>
-      <c r="BW69" t="n">
+      <c r="BX69" t="n">
         <v>41872</v>
       </c>
-      <c r="BX69" t="n">
+      <c r="BY69" t="n">
         <v>39508</v>
       </c>
-      <c r="BY69" t="n">
+      <c r="BZ69" t="n">
         <v>40634</v>
       </c>
-      <c r="BZ69" t="n">
+      <c r="CA69" t="n">
         <v>44074</v>
       </c>
-      <c r="CA69" t="n">
+      <c r="CB69" t="n">
         <v>88298</v>
       </c>
-      <c r="CB69" t="n">
+      <c r="CC69" t="n">
         <v>182182</v>
       </c>
-      <c r="CC69" t="n">
+      <c r="CD69" t="n">
         <v>-114272</v>
       </c>
-      <c r="CD69" t="n">
+      <c r="CE69" t="n">
         <v>57480</v>
       </c>
-      <c r="CE69" t="n">
+      <c r="CF69" t="n">
         <v>37329</v>
       </c>
-      <c r="CF69" t="n">
+      <c r="CG69" t="n">
         <v>32949</v>
       </c>
-      <c r="CG69" t="n">
+      <c r="CH69" t="n">
         <v>32615</v>
       </c>
-      <c r="CH69" t="n">
+      <c r="CI69" t="n">
         <v>48553</v>
       </c>
-      <c r="CI69" t="n">
+      <c r="CJ69" t="n">
         <v>52743</v>
       </c>
-      <c r="CJ69" t="n">
+      <c r="CK69" t="n">
         <v>71163</v>
       </c>
-      <c r="CK69" t="n">
+      <c r="CL69" t="n">
         <v>60103</v>
       </c>
-      <c r="CL69" t="n">
+      <c r="CM69" t="n">
         <v>57653</v>
       </c>
-      <c r="CM69" t="n">
+      <c r="CN69" t="n">
         <v>57822</v>
       </c>
-      <c r="CN69" t="n">
+      <c r="CO69" t="n">
         <v>70627</v>
       </c>
-      <c r="CO69" t="n">
+      <c r="CP69" t="n">
         <v>50585</v>
-      </c>
-      <c r="CP69" t="n">
-        <v>83294.992</v>
       </c>
       <c r="CQ69" t="n">
         <v>83294.992</v>
@@ -20150,184 +20372,184 @@
         <v>-17</v>
       </c>
       <c r="AI70" t="n">
-        <v>0</v>
+        <v>-19843</v>
       </c>
       <c r="AJ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK70" t="n">
         <v>-3423</v>
       </c>
-      <c r="AK70" t="n">
+      <c r="AL70" t="n">
         <v>-71</v>
       </c>
-      <c r="AL70" t="n">
+      <c r="AM70" t="n">
         <v>-32837</v>
       </c>
-      <c r="AM70" t="n">
+      <c r="AN70" t="n">
         <v>-5507</v>
       </c>
-      <c r="AN70" t="n">
+      <c r="AO70" t="n">
         <v>-1704</v>
       </c>
-      <c r="AO70" t="n">
+      <c r="AP70" t="n">
         <v>-10912</v>
       </c>
-      <c r="AP70" t="n">
+      <c r="AQ70" t="n">
         <v>-324188.992</v>
       </c>
-      <c r="AQ70" t="n">
+      <c r="AR70" t="n">
         <v>-75447</v>
       </c>
-      <c r="AR70" t="n">
+      <c r="AS70" t="n">
         <v>-86416</v>
       </c>
-      <c r="AS70" t="n">
+      <c r="AT70" t="n">
         <v>-113208</v>
       </c>
-      <c r="AT70" t="n">
+      <c r="AU70" t="n">
         <v>-141196.992</v>
       </c>
-      <c r="AU70" t="n">
+      <c r="AV70" t="n">
         <v>-96467</v>
       </c>
-      <c r="AV70" t="n">
+      <c r="AW70" t="n">
         <v>-111710</v>
       </c>
-      <c r="AW70" t="n">
+      <c r="AX70" t="n">
         <v>-75963</v>
       </c>
-      <c r="AX70" t="n">
+      <c r="AY70" t="n">
         <v>-94068.992</v>
       </c>
-      <c r="AY70" t="n">
+      <c r="AZ70" t="n">
         <v>-21033</v>
       </c>
-      <c r="AZ70" t="n">
+      <c r="BA70" t="n">
         <v>-30555</v>
       </c>
-      <c r="BA70" t="n">
+      <c r="BB70" t="n">
         <v>-21046</v>
       </c>
-      <c r="BB70" t="n">
+      <c r="BC70" t="n">
         <v>-23815</v>
       </c>
-      <c r="BC70" t="n">
+      <c r="BD70" t="n">
         <v>-27190</v>
       </c>
-      <c r="BD70" t="n">
+      <c r="BE70" t="n">
         <v>-26133</v>
       </c>
-      <c r="BE70" t="n">
+      <c r="BF70" t="n">
         <v>-31704</v>
       </c>
-      <c r="BF70" t="n">
+      <c r="BG70" t="n">
         <v>-34024</v>
       </c>
-      <c r="BG70" t="n">
+      <c r="BH70" t="n">
         <v>-38639</v>
       </c>
-      <c r="BH70" t="n">
+      <c r="BI70" t="n">
         <v>-33418</v>
       </c>
-      <c r="BI70" t="n">
+      <c r="BJ70" t="n">
         <v>-33945</v>
       </c>
-      <c r="BJ70" t="n">
+      <c r="BK70" t="n">
         <v>-44258.992</v>
       </c>
-      <c r="BK70" t="n">
+      <c r="BL70" t="n">
         <v>-41311</v>
       </c>
-      <c r="BL70" t="n">
+      <c r="BM70" t="n">
         <v>-38949</v>
       </c>
-      <c r="BM70" t="n">
+      <c r="BN70" t="n">
         <v>-42030</v>
       </c>
-      <c r="BN70" t="n">
+      <c r="BO70" t="n">
         <v>-45325.008</v>
       </c>
-      <c r="BO70" t="n">
+      <c r="BP70" t="n">
         <v>-41637</v>
       </c>
-      <c r="BP70" t="n">
+      <c r="BQ70" t="n">
         <v>-30869</v>
       </c>
-      <c r="BQ70" t="n">
+      <c r="BR70" t="n">
         <v>-33867</v>
       </c>
-      <c r="BR70" t="n">
+      <c r="BS70" t="n">
         <v>-22371</v>
       </c>
-      <c r="BS70" t="n">
+      <c r="BT70" t="n">
         <v>-23955</v>
       </c>
-      <c r="BT70" t="n">
+      <c r="BU70" t="n">
         <v>-16245</v>
       </c>
-      <c r="BU70" t="n">
+      <c r="BV70" t="n">
         <v>-20600</v>
       </c>
-      <c r="BV70" t="n">
+      <c r="BW70" t="n">
         <v>-29236</v>
       </c>
-      <c r="BW70" t="n">
+      <c r="BX70" t="n">
         <v>-22599</v>
       </c>
-      <c r="BX70" t="n">
+      <c r="BY70" t="n">
         <v>-21905</v>
       </c>
-      <c r="BY70" t="n">
+      <c r="BZ70" t="n">
         <v>-16379</v>
       </c>
-      <c r="BZ70" t="n">
+      <c r="CA70" t="n">
         <v>-25051</v>
       </c>
-      <c r="CA70" t="n">
+      <c r="CB70" t="n">
         <v>-59257</v>
       </c>
-      <c r="CB70" t="n">
+      <c r="CC70" t="n">
         <v>-52906</v>
       </c>
-      <c r="CC70" t="n">
+      <c r="CD70" t="n">
         <v>-9397</v>
       </c>
-      <c r="CD70" t="n">
+      <c r="CE70" t="n">
         <v>-58616</v>
       </c>
-      <c r="CE70" t="n">
+      <c r="CF70" t="n">
         <v>-30991</v>
       </c>
-      <c r="CF70" t="n">
+      <c r="CG70" t="n">
         <v>-31812</v>
       </c>
-      <c r="CG70" t="n">
+      <c r="CH70" t="n">
         <v>-23146</v>
       </c>
-      <c r="CH70" t="n">
+      <c r="CI70" t="n">
         <v>-36669</v>
       </c>
-      <c r="CI70" t="n">
+      <c r="CJ70" t="n">
         <v>-38049</v>
       </c>
-      <c r="CJ70" t="n">
+      <c r="CK70" t="n">
         <v>-52873</v>
       </c>
-      <c r="CK70" t="n">
+      <c r="CL70" t="n">
         <v>-38722</v>
       </c>
-      <c r="CL70" t="n">
+      <c r="CM70" t="n">
         <v>-35603.008</v>
       </c>
-      <c r="CM70" t="n">
+      <c r="CN70" t="n">
         <v>-30700</v>
       </c>
-      <c r="CN70" t="n">
+      <c r="CO70" t="n">
         <v>-50846</v>
       </c>
-      <c r="CO70" t="n">
+      <c r="CP70" t="n">
         <v>-20136</v>
-      </c>
-      <c r="CP70" t="n">
-        <v>-58698</v>
       </c>
       <c r="CQ70" t="n">
         <v>-58698</v>
@@ -20439,7 +20661,7 @@
         <v>2</v>
       </c>
       <c r="AI71" t="n">
-        <v>0</v>
+        <v>-157</v>
       </c>
       <c r="AJ71" t="n">
         <v>0</v>
@@ -20459,7 +20681,9 @@
       <c r="AO71" t="n">
         <v>0</v>
       </c>
-      <c r="AP71" t="inlineStr"/>
+      <c r="AP71" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ71" t="inlineStr"/>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -20620,7 +20844,7 @@
         <v>2</v>
       </c>
       <c r="AI72" t="n">
-        <v>0</v>
+        <v>-157</v>
       </c>
       <c r="AJ72" t="n">
         <v>0</v>
@@ -20640,7 +20864,9 @@
       <c r="AO72" t="n">
         <v>0</v>
       </c>
-      <c r="AP72" t="inlineStr"/>
+      <c r="AP72" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ72" t="inlineStr"/>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
@@ -20821,7 +21047,9 @@
       <c r="AO73" t="n">
         <v>0</v>
       </c>
-      <c r="AP73" t="inlineStr"/>
+      <c r="AP73" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ73" t="inlineStr"/>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
@@ -20982,184 +21210,184 @@
         <v>20120</v>
       </c>
       <c r="AI74" t="n">
+        <v>110633.008</v>
+      </c>
+      <c r="AJ74" t="n">
         <v>13338</v>
       </c>
-      <c r="AJ74" t="n">
+      <c r="AK74" t="n">
         <v>7627</v>
       </c>
-      <c r="AK74" t="n">
+      <c r="AL74" t="n">
         <v>9039</v>
       </c>
-      <c r="AL74" t="n">
+      <c r="AM74" t="n">
         <v>69137</v>
       </c>
-      <c r="AM74" t="n">
+      <c r="AN74" t="n">
         <v>61898</v>
       </c>
-      <c r="AN74" t="n">
+      <c r="AO74" t="n">
         <v>-3944</v>
       </c>
-      <c r="AO74" t="n">
+      <c r="AP74" t="n">
         <v>27076</v>
       </c>
-      <c r="AP74" t="n">
+      <c r="AQ74" t="n">
         <v>12650</v>
       </c>
-      <c r="AQ74" t="n">
+      <c r="AR74" t="n">
         <v>24289</v>
       </c>
-      <c r="AR74" t="n">
+      <c r="AS74" t="n">
         <v>32977</v>
       </c>
-      <c r="AS74" t="n">
+      <c r="AT74" t="n">
         <v>28546</v>
       </c>
-      <c r="AT74" t="n">
+      <c r="AU74" t="n">
         <v>31032</v>
       </c>
-      <c r="AU74" t="n">
+      <c r="AV74" t="n">
         <v>34125</v>
       </c>
-      <c r="AV74" t="n">
+      <c r="AW74" t="n">
         <v>20440</v>
       </c>
-      <c r="AW74" t="n">
+      <c r="AX74" t="n">
         <v>39008</v>
       </c>
-      <c r="AX74" t="n">
+      <c r="AY74" t="n">
         <v>53971.992</v>
       </c>
-      <c r="AY74" t="n">
+      <c r="AZ74" t="n">
         <v>21068</v>
       </c>
-      <c r="AZ74" t="n">
+      <c r="BA74" t="n">
         <v>29281</v>
       </c>
-      <c r="BA74" t="n">
+      <c r="BB74" t="n">
         <v>14801</v>
       </c>
-      <c r="BB74" t="n">
+      <c r="BC74" t="n">
         <v>24707</v>
       </c>
-      <c r="BC74" t="n">
+      <c r="BD74" t="n">
         <v>22182</v>
       </c>
-      <c r="BD74" t="n">
+      <c r="BE74" t="n">
         <v>16564</v>
       </c>
-      <c r="BE74" t="n">
+      <c r="BF74" t="n">
         <v>25735</v>
       </c>
-      <c r="BF74" t="n">
+      <c r="BG74" t="n">
         <v>24978</v>
       </c>
-      <c r="BG74" t="n">
+      <c r="BH74" t="n">
         <v>21505</v>
       </c>
-      <c r="BH74" t="n">
+      <c r="BI74" t="n">
         <v>32108</v>
       </c>
-      <c r="BI74" t="n">
+      <c r="BJ74" t="n">
         <v>32220</v>
       </c>
-      <c r="BJ74" t="n">
+      <c r="BK74" t="n">
         <v>32436</v>
       </c>
-      <c r="BK74" t="n">
+      <c r="BL74" t="n">
         <v>26339</v>
       </c>
-      <c r="BL74" t="n">
+      <c r="BM74" t="n">
         <v>28404</v>
       </c>
-      <c r="BM74" t="n">
+      <c r="BN74" t="n">
         <v>33041</v>
       </c>
-      <c r="BN74" t="n">
+      <c r="BO74" t="n">
         <v>35113</v>
       </c>
-      <c r="BO74" t="n">
+      <c r="BP74" t="n">
         <v>18960</v>
       </c>
-      <c r="BP74" t="n">
+      <c r="BQ74" t="n">
         <v>23772</v>
       </c>
-      <c r="BQ74" t="n">
+      <c r="BR74" t="n">
         <v>18934</v>
       </c>
-      <c r="BR74" t="n">
+      <c r="BS74" t="n">
         <v>47140</v>
       </c>
-      <c r="BS74" t="n">
+      <c r="BT74" t="n">
         <v>27373</v>
       </c>
-      <c r="BT74" t="n">
+      <c r="BU74" t="n">
         <v>29767</v>
       </c>
-      <c r="BU74" t="n">
+      <c r="BV74" t="n">
         <v>35254</v>
       </c>
-      <c r="BV74" t="n">
+      <c r="BW74" t="n">
         <v>23762</v>
       </c>
-      <c r="BW74" t="n">
+      <c r="BX74" t="n">
         <v>24889</v>
       </c>
-      <c r="BX74" t="n">
+      <c r="BY74" t="n">
         <v>15141</v>
       </c>
-      <c r="BY74" t="n">
+      <c r="BZ74" t="n">
         <v>27146</v>
       </c>
-      <c r="BZ74" t="n">
+      <c r="CA74" t="n">
         <v>26265</v>
       </c>
-      <c r="CA74" t="n">
+      <c r="CB74" t="n">
         <v>20881</v>
       </c>
-      <c r="CB74" t="n">
+      <c r="CC74" t="n">
         <v>27031</v>
       </c>
-      <c r="CC74" t="n">
+      <c r="CD74" t="n">
         <v>19089</v>
       </c>
-      <c r="CD74" t="n">
+      <c r="CE74" t="n">
         <v>12956</v>
       </c>
-      <c r="CE74" t="n">
+      <c r="CF74" t="n">
         <v>6226</v>
       </c>
-      <c r="CF74" t="n">
+      <c r="CG74" t="n">
         <v>-617</v>
       </c>
-      <c r="CG74" t="n">
+      <c r="CH74" t="n">
         <v>4785</v>
       </c>
-      <c r="CH74" t="n">
+      <c r="CI74" t="n">
         <v>-5579</v>
       </c>
-      <c r="CI74" t="n">
+      <c r="CJ74" t="n">
         <v>4714</v>
       </c>
-      <c r="CJ74" t="n">
+      <c r="CK74" t="n">
         <v>28024</v>
       </c>
-      <c r="CK74" t="n">
+      <c r="CL74" t="n">
         <v>82509</v>
       </c>
-      <c r="CL74" t="n">
+      <c r="CM74" t="n">
         <v>14329</v>
       </c>
-      <c r="CM74" t="n">
+      <c r="CN74" t="n">
         <v>18579</v>
       </c>
-      <c r="CN74" t="n">
+      <c r="CO74" t="n">
         <v>19693</v>
       </c>
-      <c r="CO74" t="n">
+      <c r="CP74" t="n">
         <v>39981</v>
-      </c>
-      <c r="CP74" t="n">
-        <v>-4679</v>
       </c>
       <c r="CQ74" t="n">
         <v>-4679</v>
@@ -21271,7 +21499,7 @@
         <v>0</v>
       </c>
       <c r="AI75" t="n">
-        <v>0</v>
+        <v>-33932</v>
       </c>
       <c r="AJ75" t="n">
         <v>0</v>
@@ -21280,23 +21508,23 @@
         <v>0</v>
       </c>
       <c r="AL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM75" t="n">
         <v>-27538</v>
       </c>
-      <c r="AM75" t="n">
+      <c r="AN75" t="n">
         <v>-14911</v>
       </c>
-      <c r="AN75" t="n">
+      <c r="AO75" t="n">
         <v>1736</v>
       </c>
-      <c r="AO75" t="n">
+      <c r="AP75" t="n">
         <v>-7267</v>
       </c>
-      <c r="AP75" t="n">
+      <c r="AQ75" t="n">
         <v>20442</v>
       </c>
-      <c r="AQ75" t="n">
-        <v>0</v>
-      </c>
       <c r="AR75" t="n">
         <v>0</v>
       </c>
@@ -21355,100 +21583,100 @@
         <v>0</v>
       </c>
       <c r="BK75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL75" t="n">
         <v>-4311</v>
       </c>
-      <c r="BL75" t="n">
-        <v>0</v>
-      </c>
       <c r="BM75" t="n">
         <v>0</v>
       </c>
       <c r="BN75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO75" t="n">
         <v>4311</v>
       </c>
-      <c r="BO75" t="n">
+      <c r="BP75" t="n">
         <v>-4490</v>
       </c>
-      <c r="BP75" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ75" t="n">
         <v>0</v>
       </c>
       <c r="BR75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS75" t="n">
         <v>4490</v>
       </c>
-      <c r="BS75" t="n">
+      <c r="BT75" t="n">
         <v>-6087</v>
       </c>
-      <c r="BT75" t="n">
-        <v>0</v>
-      </c>
       <c r="BU75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV75" t="n">
         <v>-11383</v>
       </c>
-      <c r="BV75" t="n">
+      <c r="BW75" t="n">
         <v>17470</v>
       </c>
-      <c r="BW75" t="n">
+      <c r="BX75" t="n">
         <v>-4875</v>
       </c>
-      <c r="BX75" t="n">
-        <v>0</v>
-      </c>
       <c r="BY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ75" t="n">
         <v>-3608</v>
       </c>
-      <c r="BZ75" t="n">
+      <c r="CA75" t="n">
         <v>8483</v>
       </c>
-      <c r="CA75" t="n">
+      <c r="CB75" t="n">
         <v>1392</v>
       </c>
-      <c r="CB75" t="n">
-        <v>0</v>
-      </c>
       <c r="CC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD75" t="n">
         <v>-2403</v>
       </c>
-      <c r="CD75" t="n">
+      <c r="CE75" t="n">
         <v>1011</v>
       </c>
-      <c r="CE75" t="n">
+      <c r="CF75" t="n">
         <v>1620</v>
       </c>
-      <c r="CF75" t="n">
+      <c r="CG75" t="n">
         <v>3804</v>
       </c>
-      <c r="CG75" t="n">
+      <c r="CH75" t="n">
         <v>5740</v>
       </c>
-      <c r="CH75" t="n">
+      <c r="CI75" t="n">
         <v>7669</v>
       </c>
-      <c r="CI75" t="n">
+      <c r="CJ75" t="n">
         <v>3558</v>
       </c>
-      <c r="CJ75" t="n">
+      <c r="CK75" t="n">
         <v>-5655</v>
       </c>
-      <c r="CK75" t="n">
+      <c r="CL75" t="n">
         <v>1037</v>
       </c>
-      <c r="CL75" t="n">
+      <c r="CM75" t="n">
         <v>-1630</v>
       </c>
-      <c r="CM75" t="n">
+      <c r="CN75" t="n">
         <v>-6223</v>
       </c>
-      <c r="CN75" t="n">
+      <c r="CO75" t="n">
         <v>-3757</v>
       </c>
-      <c r="CO75" t="n">
+      <c r="CP75" t="n">
         <v>-8628</v>
-      </c>
-      <c r="CP75" t="n">
-        <v>-5861</v>
       </c>
       <c r="CQ75" t="n">
         <v>-5861</v>
@@ -21849,27 +22077,29 @@
         <v>-419</v>
       </c>
       <c r="AI77" t="n">
+        <v>-2811</v>
+      </c>
+      <c r="AJ77" t="n">
         <v>-416</v>
       </c>
-      <c r="AJ77" t="n">
+      <c r="AK77" t="n">
         <v>-314</v>
       </c>
-      <c r="AK77" t="n">
+      <c r="AL77" t="n">
         <v>-307</v>
       </c>
-      <c r="AL77" t="n">
+      <c r="AM77" t="n">
         <v>-3649</v>
       </c>
-      <c r="AM77" t="n">
+      <c r="AN77" t="n">
         <v>-1273</v>
       </c>
-      <c r="AN77" t="n">
+      <c r="AO77" t="n">
         <v>-1464</v>
       </c>
-      <c r="AO77" t="n">
+      <c r="AP77" t="n">
         <v>-1178</v>
       </c>
-      <c r="AP77" t="inlineStr"/>
       <c r="AQ77" t="inlineStr"/>
       <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr"/>
@@ -22030,27 +22260,29 @@
         <v>0</v>
       </c>
       <c r="AI78" t="n">
-        <v>0</v>
+        <v>-3506</v>
       </c>
       <c r="AJ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK78" t="n">
         <v>3062</v>
       </c>
-      <c r="AK78" t="n">
-        <v>0</v>
-      </c>
       <c r="AL78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM78" t="n">
         <v>-3062</v>
       </c>
-      <c r="AM78" t="n">
-        <v>0</v>
-      </c>
       <c r="AN78" t="n">
         <v>0</v>
       </c>
       <c r="AO78" t="n">
         <v>0</v>
       </c>
-      <c r="AP78" t="inlineStr"/>
+      <c r="AP78" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ78" t="inlineStr"/>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -22148,173 +22380,171 @@
       <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr"/>
       <c r="AL79" t="inlineStr"/>
-      <c r="AM79" t="n">
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="n">
         <v>-16336</v>
       </c>
-      <c r="AN79" t="n">
+      <c r="AO79" t="n">
         <v>2070</v>
       </c>
-      <c r="AO79" t="n">
+      <c r="AP79" t="n">
         <v>-5341</v>
       </c>
-      <c r="AP79" t="n">
+      <c r="AQ79" t="n">
         <v>549</v>
       </c>
-      <c r="AQ79" t="n">
+      <c r="AR79" t="n">
         <v>-5261</v>
       </c>
-      <c r="AR79" t="n">
+      <c r="AS79" t="n">
         <v>-9039</v>
       </c>
-      <c r="AS79" t="n">
+      <c r="AT79" t="n">
         <v>-2626</v>
       </c>
-      <c r="AT79" t="n">
+      <c r="AU79" t="n">
         <v>-6108</v>
       </c>
-      <c r="AU79" t="n">
+      <c r="AV79" t="n">
         <v>-5932</v>
       </c>
-      <c r="AV79" t="n">
+      <c r="AW79" t="n">
         <v>-4657</v>
       </c>
-      <c r="AW79" t="n">
+      <c r="AX79" t="n">
         <v>-12061</v>
       </c>
-      <c r="AX79" t="n">
+      <c r="AY79" t="n">
         <v>-11705</v>
       </c>
-      <c r="AY79" t="n">
+      <c r="AZ79" t="n">
         <v>-6905</v>
       </c>
-      <c r="AZ79" t="n">
+      <c r="BA79" t="n">
         <v>-9726</v>
       </c>
-      <c r="BA79" t="n">
+      <c r="BB79" t="n">
         <v>-5360</v>
       </c>
-      <c r="BB79" t="n">
+      <c r="BC79" t="n">
         <v>-3342</v>
       </c>
-      <c r="BC79" t="n">
+      <c r="BD79" t="n">
         <v>-6466</v>
       </c>
-      <c r="BD79" t="n">
+      <c r="BE79" t="n">
         <v>-4181</v>
       </c>
-      <c r="BE79" t="n">
+      <c r="BF79" t="n">
         <v>-6738</v>
       </c>
-      <c r="BF79" t="n">
+      <c r="BG79" t="n">
         <v>-8449</v>
       </c>
-      <c r="BG79" t="n">
+      <c r="BH79" t="n">
         <v>-4853</v>
       </c>
-      <c r="BH79" t="n">
+      <c r="BI79" t="n">
         <v>-9232</v>
       </c>
-      <c r="BI79" t="n">
+      <c r="BJ79" t="n">
         <v>-7677</v>
       </c>
-      <c r="BJ79" t="n">
+      <c r="BK79" t="n">
         <v>-7004</v>
       </c>
-      <c r="BK79" t="n">
+      <c r="BL79" t="n">
         <v>-7152</v>
       </c>
-      <c r="BL79" t="n">
+      <c r="BM79" t="n">
         <v>-8025</v>
       </c>
-      <c r="BM79" t="n">
+      <c r="BN79" t="n">
         <v>-9267</v>
       </c>
-      <c r="BN79" t="n">
+      <c r="BO79" t="n">
         <v>-9661</v>
       </c>
-      <c r="BO79" t="n">
+      <c r="BP79" t="n">
         <v>-5136</v>
       </c>
-      <c r="BP79" t="n">
+      <c r="BQ79" t="n">
         <v>-6652</v>
       </c>
-      <c r="BQ79" t="n">
+      <c r="BR79" t="n">
         <v>-8355</v>
       </c>
-      <c r="BR79" t="n">
+      <c r="BS79" t="n">
         <v>-13273</v>
       </c>
-      <c r="BS79" t="n">
+      <c r="BT79" t="n">
         <v>-7226</v>
       </c>
-      <c r="BT79" t="n">
+      <c r="BU79" t="n">
         <v>-8071</v>
       </c>
-      <c r="BU79" t="n">
+      <c r="BV79" t="n">
         <v>-9560</v>
       </c>
-      <c r="BV79" t="n">
+      <c r="BW79" t="n">
         <v>-5816</v>
       </c>
-      <c r="BW79" t="n">
+      <c r="BX79" t="n">
         <v>-6681</v>
       </c>
-      <c r="BX79" t="n">
+      <c r="BY79" t="n">
         <v>-4488</v>
       </c>
-      <c r="BY79" t="n">
+      <c r="BZ79" t="n">
         <v>-7871</v>
       </c>
-      <c r="BZ79" t="n">
+      <c r="CA79" t="n">
         <v>-7112</v>
       </c>
-      <c r="CA79" t="n">
+      <c r="CB79" t="n">
         <v>-8870</v>
       </c>
-      <c r="CB79" t="n">
+      <c r="CC79" t="n">
         <v>-7042</v>
       </c>
-      <c r="CC79" t="n">
+      <c r="CD79" t="n">
         <v>-5505</v>
       </c>
-      <c r="CD79" t="n">
+      <c r="CE79" t="n">
         <v>-1298</v>
       </c>
-      <c r="CE79" t="n">
+      <c r="CF79" t="n">
         <v>-1741</v>
       </c>
-      <c r="CF79" t="n">
+      <c r="CG79" t="n">
         <v>310</v>
       </c>
-      <c r="CG79" t="n">
+      <c r="CH79" t="n">
         <v>-2295</v>
       </c>
-      <c r="CH79" t="n">
+      <c r="CI79" t="n">
         <v>1519</v>
       </c>
-      <c r="CI79" t="n">
+      <c r="CJ79" t="n">
         <v>-1340</v>
       </c>
-      <c r="CJ79" t="n">
+      <c r="CK79" t="n">
         <v>-6418</v>
       </c>
-      <c r="CK79" t="n">
+      <c r="CL79" t="n">
         <v>-31509</v>
       </c>
-      <c r="CL79" t="n">
+      <c r="CM79" t="n">
         <v>-3641</v>
       </c>
-      <c r="CM79" t="n">
+      <c r="CN79" t="n">
         <v>-4362</v>
       </c>
-      <c r="CN79" t="n">
+      <c r="CO79" t="n">
         <v>-4866</v>
       </c>
-      <c r="CO79" t="n">
+      <c r="CP79" t="n">
         <v>-11916</v>
-      </c>
-      <c r="CP79" t="n">
-        <v>1356</v>
       </c>
       <c r="CQ79" t="n">
         <v>1356</v>
@@ -22426,184 +22656,184 @@
         <v>19701</v>
       </c>
       <c r="AI80" t="n">
+        <v>17858</v>
+      </c>
+      <c r="AJ80" t="n">
         <v>12922</v>
       </c>
-      <c r="AJ80" t="n">
+      <c r="AK80" t="n">
         <v>10375</v>
       </c>
-      <c r="AK80" t="n">
+      <c r="AL80" t="n">
         <v>8732</v>
       </c>
-      <c r="AL80" t="n">
+      <c r="AM80" t="n">
         <v>14267</v>
       </c>
-      <c r="AM80" t="n">
+      <c r="AN80" t="n">
         <v>29378</v>
       </c>
-      <c r="AN80" t="n">
+      <c r="AO80" t="n">
         <v>-1602</v>
       </c>
-      <c r="AO80" t="n">
+      <c r="AP80" t="n">
         <v>13290</v>
       </c>
-      <c r="AP80" t="n">
+      <c r="AQ80" t="n">
         <v>9658</v>
       </c>
-      <c r="AQ80" t="n">
+      <c r="AR80" t="n">
         <v>10087</v>
       </c>
-      <c r="AR80" t="n">
+      <c r="AS80" t="n">
         <v>14068</v>
       </c>
-      <c r="AS80" t="n">
+      <c r="AT80" t="n">
         <v>18209</v>
       </c>
-      <c r="AT80" t="n">
+      <c r="AU80" t="n">
         <v>14274</v>
       </c>
-      <c r="AU80" t="n">
+      <c r="AV80" t="n">
         <v>15854</v>
       </c>
-      <c r="AV80" t="n">
+      <c r="AW80" t="n">
         <v>8987</v>
       </c>
-      <c r="AW80" t="n">
+      <c r="AX80" t="n">
         <v>13749</v>
       </c>
-      <c r="AX80" t="n">
+      <c r="AY80" t="n">
         <v>24564</v>
       </c>
-      <c r="AY80" t="n">
+      <c r="AZ80" t="n">
         <v>13136</v>
       </c>
-      <c r="AZ80" t="n">
+      <c r="BA80" t="n">
         <v>15616</v>
       </c>
-      <c r="BA80" t="n">
+      <c r="BB80" t="n">
         <v>5750</v>
       </c>
-      <c r="BB80" t="n">
+      <c r="BC80" t="n">
         <v>18039</v>
       </c>
-      <c r="BC80" t="n">
+      <c r="BD80" t="n">
         <v>10114</v>
       </c>
-      <c r="BD80" t="n">
+      <c r="BE80" t="n">
         <v>5489</v>
       </c>
-      <c r="BE80" t="n">
+      <c r="BF80" t="n">
         <v>14238</v>
       </c>
-      <c r="BF80" t="n">
+      <c r="BG80" t="n">
         <v>11243</v>
       </c>
-      <c r="BG80" t="n">
+      <c r="BH80" t="n">
         <v>12266</v>
       </c>
-      <c r="BH80" t="n">
+      <c r="BI80" t="n">
         <v>15030</v>
       </c>
-      <c r="BI80" t="n">
+      <c r="BJ80" t="n">
         <v>18283</v>
       </c>
-      <c r="BJ80" t="n">
+      <c r="BK80" t="n">
         <v>18646</v>
       </c>
-      <c r="BK80" t="n">
+      <c r="BL80" t="n">
         <v>14876</v>
       </c>
-      <c r="BL80" t="n">
+      <c r="BM80" t="n">
         <v>13686</v>
       </c>
-      <c r="BM80" t="n">
+      <c r="BN80" t="n">
         <v>17208</v>
       </c>
-      <c r="BN80" t="n">
+      <c r="BO80" t="n">
         <v>15405</v>
       </c>
-      <c r="BO80" t="n">
+      <c r="BP80" t="n">
         <v>9334</v>
       </c>
-      <c r="BP80" t="n">
+      <c r="BQ80" t="n">
         <v>11615</v>
       </c>
-      <c r="BQ80" t="n">
+      <c r="BR80" t="n">
         <v>9482</v>
       </c>
-      <c r="BR80" t="n">
+      <c r="BS80" t="n">
         <v>20756</v>
       </c>
-      <c r="BS80" t="n">
+      <c r="BT80" t="n">
         <v>14060</v>
       </c>
-      <c r="BT80" t="n">
+      <c r="BU80" t="n">
         <v>12064</v>
       </c>
-      <c r="BU80" t="n">
+      <c r="BV80" t="n">
         <v>14311</v>
       </c>
-      <c r="BV80" t="n">
+      <c r="BW80" t="n">
         <v>12592</v>
       </c>
-      <c r="BW80" t="n">
+      <c r="BX80" t="n">
         <v>13333</v>
       </c>
-      <c r="BX80" t="n">
+      <c r="BY80" t="n">
         <v>8163</v>
       </c>
-      <c r="BY80" t="n">
+      <c r="BZ80" t="n">
         <v>15667</v>
       </c>
-      <c r="BZ80" t="n">
+      <c r="CA80" t="n">
         <v>13007</v>
       </c>
-      <c r="CA80" t="n">
+      <c r="CB80" t="n">
         <v>13403</v>
       </c>
-      <c r="CB80" t="n">
+      <c r="CC80" t="n">
         <v>11573</v>
       </c>
-      <c r="CC80" t="n">
+      <c r="CD80" t="n">
         <v>11181</v>
       </c>
-      <c r="CD80" t="n">
+      <c r="CE80" t="n">
         <v>4942</v>
       </c>
-      <c r="CE80" t="n">
+      <c r="CF80" t="n">
         <v>6105</v>
       </c>
-      <c r="CF80" t="n">
+      <c r="CG80" t="n">
         <v>3497</v>
       </c>
-      <c r="CG80" t="n">
+      <c r="CH80" t="n">
         <v>8230</v>
       </c>
-      <c r="CH80" t="n">
+      <c r="CI80" t="n">
         <v>3609</v>
       </c>
-      <c r="CI80" t="n">
+      <c r="CJ80" t="n">
         <v>6932</v>
       </c>
-      <c r="CJ80" t="n">
+      <c r="CK80" t="n">
         <v>15951</v>
       </c>
-      <c r="CK80" t="n">
+      <c r="CL80" t="n">
         <v>52037</v>
       </c>
-      <c r="CL80" t="n">
+      <c r="CM80" t="n">
         <v>9058</v>
       </c>
-      <c r="CM80" t="n">
+      <c r="CN80" t="n">
         <v>7994</v>
       </c>
-      <c r="CN80" t="n">
+      <c r="CO80" t="n">
         <v>11070</v>
       </c>
-      <c r="CO80" t="n">
+      <c r="CP80" t="n">
         <v>19437</v>
-      </c>
-      <c r="CP80" t="n">
-        <v>-9184</v>
       </c>
       <c r="CQ80" t="n">
         <v>-9184</v>
